--- a/code_generate_figures/data/ranks_all_DIANN_DIA_ensemble_topk.xlsx
+++ b/code_generate_figures/data/ranks_all_DIANN_DIA_ensemble_topk.xlsx
@@ -962,67 +962,67 @@
         <v>0.781002494117647</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7767263</v>
+        <v>0.7724501</v>
       </c>
       <c r="J2" t="n">
         <v>31</v>
       </c>
       <c r="K2" t="n">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="L2" t="n">
         <v>0.841588929411765</v>
       </c>
       <c r="M2" t="n">
-        <v>0.83745745</v>
+        <v>0.833326</v>
       </c>
       <c r="N2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O2" t="n">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="P2" t="n">
         <v>0.862671758823529</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8628538</v>
+        <v>0.8630358</v>
       </c>
       <c r="R2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S2" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T2" t="n">
         <v>0.811421147058824</v>
       </c>
       <c r="U2" t="n">
-        <v>0.83416155</v>
+        <v>0.8545424</v>
       </c>
       <c r="V2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W2" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
         <v>0.700206215294118</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7916341</v>
+        <v>0.8068642</v>
       </c>
       <c r="Z2" t="n">
         <v>54</v>
       </c>
       <c r="AA2" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AB2" t="n">
-        <v>32.6</v>
+        <v>32.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>31.6</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="3">
@@ -1051,34 +1051,34 @@
         <v>0.748259164705882</v>
       </c>
       <c r="I3" t="n">
-        <v>0.745723</v>
+        <v>0.7431868</v>
       </c>
       <c r="J3" t="n">
         <v>68</v>
       </c>
       <c r="K3" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L3" t="n">
         <v>0.801722829411765</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8044997</v>
+        <v>0.8072766</v>
       </c>
       <c r="N3" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O3" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P3" t="n">
         <v>0.823308417647059</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.82825645</v>
+        <v>0.8332045</v>
       </c>
       <c r="R3" t="n">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="S3" t="n">
         <v>87</v>
@@ -1087,10 +1087,10 @@
         <v>0.767353288235294</v>
       </c>
       <c r="U3" t="n">
-        <v>0.7771223</v>
+        <v>0.7868913</v>
       </c>
       <c r="V3" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W3" t="n">
         <v>66</v>
@@ -1099,19 +1099,19 @@
         <v>0.601097027058824</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.7388227</v>
+        <v>0.7433757</v>
       </c>
       <c r="Z3" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA3" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AB3" t="n">
-        <v>70</v>
+        <v>66.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
@@ -1140,22 +1140,22 @@
         <v>0.751368705882353</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7479921</v>
+        <v>0.7446155</v>
       </c>
       <c r="J4" t="n">
         <v>67</v>
       </c>
       <c r="K4" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L4" t="n">
         <v>0.807688476470588</v>
       </c>
       <c r="M4" t="n">
-        <v>0.80933205</v>
+        <v>0.8109756</v>
       </c>
       <c r="N4" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O4" t="n">
         <v>77</v>
@@ -1164,19 +1164,19 @@
         <v>0.829147158823529</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.8338655</v>
+        <v>0.8385838</v>
       </c>
       <c r="R4" t="n">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="S4" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T4" t="n">
         <v>0.770748535294118</v>
       </c>
       <c r="U4" t="n">
-        <v>0.7806518</v>
+        <v>0.7905551</v>
       </c>
       <c r="V4" t="n">
         <v>60</v>
@@ -1188,19 +1188,19 @@
         <v>0.607616533529412</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.7585882</v>
+        <v>0.7698732</v>
       </c>
       <c r="Z4" t="n">
         <v>58</v>
       </c>
       <c r="AA4" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AB4" t="n">
-        <v>66</v>
+        <v>62.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>71.2</v>
+        <v>72.4</v>
       </c>
     </row>
     <row r="5">
@@ -1229,19 +1229,19 @@
         <v>0.794384982352941</v>
       </c>
       <c r="I5" t="n">
-        <v>0.80324455</v>
+        <v>0.8121041</v>
       </c>
       <c r="J5" t="n">
         <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
         <v>0.854120341176471</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8618088</v>
+        <v>0.8673687</v>
       </c>
       <c r="N5" t="n">
         <v>3</v>
@@ -1253,31 +1253,31 @@
         <v>0.875365482352941</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.88479775</v>
+        <v>0.8880322</v>
       </c>
       <c r="R5" t="n">
         <v>3</v>
       </c>
       <c r="S5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T5" t="n">
         <v>0.818487388235294</v>
       </c>
       <c r="U5" t="n">
-        <v>0.85641195</v>
+        <v>0.8668979</v>
       </c>
       <c r="V5" t="n">
         <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X5" t="n">
         <v>0.736361781764706</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.84456125</v>
+        <v>0.8496316</v>
       </c>
       <c r="Z5" t="n">
         <v>51</v>
@@ -1289,7 +1289,7 @@
         <v>12.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>15.8</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="6">
@@ -1315,70 +1315,70 @@
         <v>44</v>
       </c>
       <c r="H6" t="n">
-        <v>0.758400011764706</v>
+        <v>0.765192305882353</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7589442</v>
+        <v>0.7708827</v>
       </c>
       <c r="J6" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K6" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L6" t="n">
-        <v>0.816080211764706</v>
+        <v>0.813505570588235</v>
       </c>
       <c r="M6" t="n">
-        <v>0.81743935</v>
+        <v>0.8148964</v>
       </c>
       <c r="N6" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O6" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P6" t="n">
-        <v>0.835756564705882</v>
+        <v>0.828902152941176</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.83974115</v>
+        <v>0.8310199</v>
       </c>
       <c r="R6" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S6" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="T6" t="n">
-        <v>0.763538729411765</v>
+        <v>0.760896317647059</v>
       </c>
       <c r="U6" t="n">
-        <v>0.8092733</v>
+        <v>0.8127999</v>
       </c>
       <c r="V6" t="n">
         <v>63</v>
       </c>
       <c r="W6" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="X6" t="n">
-        <v>0.580624449411765</v>
+        <v>0.570817607058824</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.72511535</v>
+        <v>0.7896513</v>
       </c>
       <c r="Z6" t="n">
         <v>63</v>
       </c>
       <c r="AA6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB6" t="n">
-        <v>61.2</v>
+        <v>59.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>67.4</v>
+        <v>69.8</v>
       </c>
     </row>
     <row r="7">
@@ -1404,70 +1404,70 @@
         <v>44</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7702663</v>
+        <v>0.771841841176471</v>
       </c>
       <c r="I7" t="n">
-        <v>0.76982025</v>
+        <v>0.7728501</v>
       </c>
       <c r="J7" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="K7" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="L7" t="n">
-        <v>0.829723305882353</v>
+        <v>0.829992429411765</v>
       </c>
       <c r="M7" t="n">
-        <v>0.82772615</v>
+        <v>0.825246</v>
       </c>
       <c r="N7" t="n">
         <v>38</v>
       </c>
       <c r="O7" t="n">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="P7" t="n">
-        <v>0.851564958823529</v>
+        <v>0.850967776470588</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8515177</v>
+        <v>0.848891</v>
       </c>
       <c r="R7" t="n">
         <v>43</v>
       </c>
       <c r="S7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="T7" t="n">
-        <v>0.800204311764706</v>
+        <v>0.799580235294118</v>
       </c>
       <c r="U7" t="n">
-        <v>0.81620365</v>
+        <v>0.8308936</v>
       </c>
       <c r="V7" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="W7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="X7" t="n">
-        <v>0.66586837</v>
+        <v>0.663531576470588</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.78553735</v>
+        <v>0.8272758</v>
       </c>
       <c r="Z7" t="n">
         <v>55</v>
       </c>
       <c r="AA7" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AB7" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AC7" t="n">
-        <v>48.6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -1496,19 +1496,19 @@
         <v>0.794407458823529</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8032558</v>
+        <v>0.8121041</v>
       </c>
       <c r="J8" t="n">
         <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8" t="n">
         <v>0.854155694117647</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8618278</v>
+        <v>0.8675282</v>
       </c>
       <c r="N8" t="n">
         <v>2</v>
@@ -1520,31 +1520,31 @@
         <v>0.875412211764706</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.8849473</v>
+        <v>0.8883627</v>
       </c>
       <c r="R8" t="n">
         <v>2</v>
       </c>
       <c r="S8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T8" t="n">
         <v>0.818801152941177</v>
       </c>
       <c r="U8" t="n">
-        <v>0.8585015</v>
+        <v>0.8668979</v>
       </c>
       <c r="V8" t="n">
         <v>1</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X8" t="n">
         <v>0.736866681764706</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.84678785</v>
+        <v>0.8540848</v>
       </c>
       <c r="Z8" t="n">
         <v>50</v>
@@ -1556,7 +1556,7 @@
         <v>11.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1582,70 +1582,70 @@
         <v>49</v>
       </c>
       <c r="H9" t="n">
-        <v>0.756972288235294</v>
+        <v>0.763079658823529</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7582033</v>
+        <v>0.7708827</v>
       </c>
       <c r="J9" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L9" t="n">
-        <v>0.809787605882353</v>
+        <v>0.807237570588235</v>
       </c>
       <c r="M9" t="n">
-        <v>0.81420415</v>
+        <v>0.814873</v>
       </c>
       <c r="N9" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O9" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P9" t="n">
-        <v>0.829302576470588</v>
+        <v>0.822805811764706</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.8362092</v>
+        <v>0.8309537</v>
       </c>
       <c r="R9" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S9" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="T9" t="n">
-        <v>0.762322223529412</v>
+        <v>0.760204082352941</v>
       </c>
       <c r="U9" t="n">
-        <v>0.8029405</v>
+        <v>0.8087204</v>
       </c>
       <c r="V9" t="n">
         <v>64</v>
       </c>
       <c r="W9" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="X9" t="n">
-        <v>0.579074478823529</v>
+        <v>0.56991336</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.72511535</v>
+        <v>0.784039</v>
       </c>
       <c r="Z9" t="n">
         <v>64</v>
       </c>
       <c r="AA9" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="AB9" t="n">
-        <v>65.8</v>
+        <v>65.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>69.8</v>
+        <v>70.8</v>
       </c>
     </row>
     <row r="10">
@@ -1671,70 +1671,70 @@
         <v>49</v>
       </c>
       <c r="H10" t="n">
-        <v>0.757989511764706</v>
+        <v>0.763151364705882</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7508483</v>
+        <v>0.7702487</v>
       </c>
       <c r="J10" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K10" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8175875</v>
+        <v>0.818600794117647</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8173231</v>
+        <v>0.8233515</v>
       </c>
       <c r="N10" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O10" t="n">
         <v>73</v>
       </c>
       <c r="P10" t="n">
-        <v>0.839517811764706</v>
+        <v>0.839291682352941</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.84230565</v>
+        <v>0.8458202</v>
       </c>
       <c r="R10" t="n">
         <v>58</v>
       </c>
       <c r="S10" t="n">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="T10" t="n">
-        <v>0.780923241176471</v>
+        <v>0.7816308</v>
       </c>
       <c r="U10" t="n">
-        <v>0.803708</v>
+        <v>0.8220661</v>
       </c>
       <c r="V10" t="n">
         <v>57</v>
       </c>
       <c r="W10" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="X10" t="n">
-        <v>0.635885864705882</v>
+        <v>0.631181842941176</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.7759809</v>
+        <v>0.815475</v>
       </c>
       <c r="Z10" t="n">
         <v>57</v>
       </c>
       <c r="AA10" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AB10" t="n">
-        <v>56.6</v>
+        <v>55.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>67.8</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="11">
@@ -1763,19 +1763,19 @@
         <v>0.795017723529412</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8033019</v>
+        <v>0.8115861</v>
       </c>
       <c r="J11" t="n">
         <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>0.857294058823529</v>
       </c>
       <c r="M11" t="n">
-        <v>0.86119575</v>
+        <v>0.8618649</v>
       </c>
       <c r="N11" t="n">
         <v>1</v>
@@ -1787,43 +1787,43 @@
         <v>0.879510717647059</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.88622995</v>
+        <v>0.8869483</v>
       </c>
       <c r="R11" t="n">
         <v>1</v>
       </c>
       <c r="S11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="T11" t="n">
         <v>0.815573176470588</v>
       </c>
       <c r="U11" t="n">
-        <v>0.84425135</v>
+        <v>0.8498322</v>
       </c>
       <c r="V11" t="n">
         <v>3</v>
       </c>
       <c r="W11" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="X11" t="n">
         <v>0.741482711176471</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.8642491</v>
+        <v>0.8735121</v>
       </c>
       <c r="Z11" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA11" t="n">
         <v>44</v>
       </c>
       <c r="AB11" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="AC11" t="n">
-        <v>15.8</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="12">
@@ -1849,43 +1849,43 @@
         <v>54</v>
       </c>
       <c r="H12" t="n">
-        <v>0.758033188235294</v>
+        <v>0.777719888235294</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7543736</v>
+        <v>0.7904797</v>
       </c>
       <c r="J12" t="n">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="K12" t="n">
+        <v>32</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.814923552941176</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.8350598</v>
+      </c>
+      <c r="N12" t="n">
+        <v>53</v>
+      </c>
+      <c r="O12" t="n">
+        <v>38</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.825971729411765</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.8497469</v>
+      </c>
+      <c r="R12" t="n">
         <v>66</v>
       </c>
-      <c r="L12" t="n">
-        <v>0.818987047058824</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.8295319</v>
-      </c>
-      <c r="N12" t="n">
-        <v>51</v>
-      </c>
-      <c r="O12" t="n">
-        <v>56</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.838192752941176</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.84798435</v>
-      </c>
-      <c r="R12" t="n">
-        <v>60</v>
-      </c>
       <c r="S12" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="T12" t="n">
-        <v>0.599953805882353</v>
+        <v>0.5970253</v>
       </c>
       <c r="U12" t="n">
         <v>0.5</v>
@@ -1894,10 +1894,10 @@
         <v>76</v>
       </c>
       <c r="W12" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="X12" t="n">
-        <v>0.236184705882353</v>
+        <v>0.231006094117647</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>76</v>
       </c>
       <c r="AA12" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AB12" t="n">
-        <v>64</v>
+        <v>61.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>66.2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13">
@@ -1938,70 +1938,70 @@
         <v>54</v>
       </c>
       <c r="H13" t="n">
-        <v>0.761125247058824</v>
+        <v>0.762761776470588</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7636018</v>
+        <v>0.7695281</v>
       </c>
       <c r="J13" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="K13" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="L13" t="n">
-        <v>0.822678370588235</v>
+        <v>0.823082911764706</v>
       </c>
       <c r="M13" t="n">
-        <v>0.82287965</v>
+        <v>0.8231544</v>
       </c>
       <c r="N13" t="n">
         <v>48</v>
       </c>
       <c r="O13" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="P13" t="n">
-        <v>0.846389664705882</v>
+        <v>0.8459612</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.8490874</v>
+        <v>0.8475367</v>
       </c>
       <c r="R13" t="n">
         <v>50</v>
       </c>
       <c r="S13" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="T13" t="n">
-        <v>0.785040676470588</v>
+        <v>0.785231323529412</v>
       </c>
       <c r="U13" t="n">
-        <v>0.8088</v>
+        <v>0.8306896</v>
       </c>
       <c r="V13" t="n">
         <v>56</v>
       </c>
       <c r="W13" t="n">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="X13" t="n">
-        <v>0.637057958235294</v>
+        <v>0.635065194705882</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.78553005</v>
+        <v>0.8271622</v>
       </c>
       <c r="Z13" t="n">
         <v>56</v>
       </c>
       <c r="AA13" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AB13" t="n">
-        <v>52.8</v>
+        <v>54.4</v>
       </c>
       <c r="AC13" t="n">
-        <v>60</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="14">
@@ -2030,22 +2030,22 @@
         <v>0.786935252941176</v>
       </c>
       <c r="I14" t="n">
-        <v>0.80051325</v>
+        <v>0.8125468</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
         <v>0.844830088235294</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8592876</v>
+        <v>0.8606024</v>
       </c>
       <c r="N14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O14" t="n">
         <v>17</v>
@@ -2054,10 +2054,10 @@
         <v>0.866879364705882</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.8886323</v>
+        <v>0.8899398</v>
       </c>
       <c r="R14" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="S14" t="n">
         <v>14</v>
@@ -2066,19 +2066,19 @@
         <v>0.814623923529412</v>
       </c>
       <c r="U14" t="n">
-        <v>0.8401442</v>
+        <v>0.8532196</v>
       </c>
       <c r="V14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W14" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="X14" t="n">
         <v>0.745761143529412</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.87300015</v>
+        <v>0.8850111</v>
       </c>
       <c r="Z14" t="n">
         <v>43</v>
@@ -2087,10 +2087,10 @@
         <v>37</v>
       </c>
       <c r="AB14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AC14" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="15">
@@ -2116,55 +2116,55 @@
         <v>59</v>
       </c>
       <c r="H15" t="n">
-        <v>0.757539158823529</v>
+        <v>0.777560817647059</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7532616</v>
+        <v>0.7887749</v>
       </c>
       <c r="J15" t="n">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="K15" t="n">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="L15" t="n">
-        <v>0.817389794117647</v>
+        <v>0.813161082352941</v>
       </c>
       <c r="M15" t="n">
-        <v>0.83129555</v>
+        <v>0.8341647</v>
       </c>
       <c r="N15" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O15" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P15" t="n">
-        <v>0.836106517647059</v>
+        <v>0.823546717647059</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.84594965</v>
+        <v>0.8392143</v>
       </c>
       <c r="R15" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="S15" t="n">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="T15" t="n">
-        <v>0.598911476470588</v>
+        <v>0.596522735294118</v>
       </c>
       <c r="U15" t="n">
         <v>0.5</v>
       </c>
       <c r="V15" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W15" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="X15" t="n">
-        <v>0.234476923529412</v>
+        <v>0.230229082352941</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -2173,13 +2173,13 @@
         <v>77</v>
       </c>
       <c r="AA15" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AB15" t="n">
-        <v>66.8</v>
+        <v>63.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>65.2</v>
+        <v>61.4</v>
       </c>
     </row>
     <row r="16">
@@ -2205,70 +2205,70 @@
         <v>59</v>
       </c>
       <c r="H16" t="n">
-        <v>0.764676417647059</v>
+        <v>0.771334141176471</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7626331</v>
+        <v>0.7859605</v>
       </c>
       <c r="J16" t="n">
         <v>46</v>
       </c>
       <c r="K16" t="n">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="L16" t="n">
-        <v>0.823502976470588</v>
+        <v>0.824858458823529</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8252548</v>
+        <v>0.8298377</v>
       </c>
       <c r="N16" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O16" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P16" t="n">
-        <v>0.845513676470588</v>
+        <v>0.845276035294118</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.85202045</v>
+        <v>0.8513498</v>
       </c>
       <c r="R16" t="n">
         <v>52</v>
       </c>
       <c r="S16" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="T16" t="n">
-        <v>0.772868723529412</v>
+        <v>0.772873652941176</v>
       </c>
       <c r="U16" t="n">
-        <v>0.8000764</v>
+        <v>0.8238124</v>
       </c>
       <c r="V16" t="n">
         <v>59</v>
       </c>
       <c r="W16" t="n">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="X16" t="n">
-        <v>0.605860685882353</v>
+        <v>0.602868248235294</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.778085</v>
+        <v>0.8173967</v>
       </c>
       <c r="Z16" t="n">
         <v>59</v>
       </c>
       <c r="AA16" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AB16" t="n">
-        <v>52.6</v>
+        <v>52</v>
       </c>
       <c r="AC16" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17">
@@ -2297,7 +2297,7 @@
         <v>0.783786629411765</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7996904</v>
+        <v>0.8109011</v>
       </c>
       <c r="J17" t="n">
         <v>16</v>
@@ -2309,22 +2309,22 @@
         <v>0.844185370588235</v>
       </c>
       <c r="M17" t="n">
-        <v>0.861481</v>
+        <v>0.8649322</v>
       </c>
       <c r="N17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O17" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P17" t="n">
         <v>0.866854288235294</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.89157415</v>
+        <v>0.8920228</v>
       </c>
       <c r="R17" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="S17" t="n">
         <v>11</v>
@@ -2333,31 +2333,31 @@
         <v>0.813686052941176</v>
       </c>
       <c r="U17" t="n">
-        <v>0.8347797</v>
+        <v>0.8501258</v>
       </c>
       <c r="V17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="W17" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="X17" t="n">
         <v>0.74558972</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.87290235</v>
+        <v>0.8847845</v>
       </c>
       <c r="Z17" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA17" t="n">
         <v>38</v>
       </c>
       <c r="AB17" t="n">
-        <v>23.4</v>
+        <v>23</v>
       </c>
       <c r="AC17" t="n">
-        <v>16.4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -2383,43 +2383,43 @@
         <v>64</v>
       </c>
       <c r="H18" t="n">
-        <v>0.768974852941177</v>
+        <v>0.778828982352941</v>
       </c>
       <c r="I18" t="n">
-        <v>0.77097245</v>
+        <v>0.7971363</v>
       </c>
       <c r="J18" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K18" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="L18" t="n">
-        <v>0.821178805882353</v>
+        <v>0.814557441176471</v>
       </c>
       <c r="M18" t="n">
-        <v>0.83709985</v>
+        <v>0.8327089</v>
       </c>
       <c r="N18" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="O18" t="n">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="P18" t="n">
-        <v>0.837032423529412</v>
+        <v>0.824057882352941</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.8502239</v>
+        <v>0.8434503</v>
       </c>
       <c r="R18" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="S18" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="T18" t="n">
-        <v>0.599021735294118</v>
+        <v>0.596577994117647</v>
       </c>
       <c r="U18" t="n">
         <v>0.5</v>
@@ -2428,10 +2428,10 @@
         <v>77</v>
       </c>
       <c r="W18" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="X18" t="n">
-        <v>0.2338793</v>
+        <v>0.229537594117647</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2440,13 +2440,13 @@
         <v>78</v>
       </c>
       <c r="AA18" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AB18" t="n">
-        <v>61.2</v>
+        <v>62.6</v>
       </c>
       <c r="AC18" t="n">
-        <v>56.6</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="19">
@@ -2472,34 +2472,34 @@
         <v>64</v>
       </c>
       <c r="H19" t="n">
-        <v>0.769771511764706</v>
+        <v>0.776805770588235</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7668927</v>
+        <v>0.7859081</v>
       </c>
       <c r="J19" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K19" t="n">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="L19" t="n">
-        <v>0.835681158823529</v>
+        <v>0.836851252941176</v>
       </c>
       <c r="M19" t="n">
-        <v>0.8384615</v>
+        <v>0.8411944</v>
       </c>
       <c r="N19" t="n">
         <v>32</v>
       </c>
       <c r="O19" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P19" t="n">
-        <v>0.858875447058824</v>
+        <v>0.858367758823529</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.8633868</v>
+        <v>0.8657311</v>
       </c>
       <c r="R19" t="n">
         <v>34</v>
@@ -2508,34 +2508,34 @@
         <v>30</v>
       </c>
       <c r="T19" t="n">
-        <v>0.774772305882353</v>
+        <v>0.774125147058824</v>
       </c>
       <c r="U19" t="n">
-        <v>0.8066799</v>
+        <v>0.8316679</v>
       </c>
       <c r="V19" t="n">
         <v>58</v>
       </c>
       <c r="W19" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="X19" t="n">
-        <v>0.603417056470588</v>
+        <v>0.599412312941176</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.76685155</v>
+        <v>0.7903859</v>
       </c>
       <c r="Z19" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA19" t="n">
         <v>59</v>
       </c>
       <c r="AB19" t="n">
-        <v>44</v>
+        <v>44.4</v>
       </c>
       <c r="AC19" t="n">
-        <v>45.2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20">
@@ -2564,7 +2564,7 @@
         <v>0.783215747058823</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7979418</v>
+        <v>0.8074039</v>
       </c>
       <c r="J20" t="n">
         <v>19</v>
@@ -2576,22 +2576,22 @@
         <v>0.8440229</v>
       </c>
       <c r="M20" t="n">
-        <v>0.86154675</v>
+        <v>0.8649322</v>
       </c>
       <c r="N20" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P20" t="n">
         <v>0.866954252941176</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.89152615</v>
+        <v>0.8919117</v>
       </c>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="S20" t="n">
         <v>12</v>
@@ -2600,19 +2600,19 @@
         <v>0.813631388235294</v>
       </c>
       <c r="U20" t="n">
-        <v>0.833321</v>
+        <v>0.8501258</v>
       </c>
       <c r="V20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W20" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="X20" t="n">
         <v>0.746583891764706</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.87290235</v>
+        <v>0.8847845</v>
       </c>
       <c r="Z20" t="n">
         <v>41</v>
@@ -2624,7 +2624,7 @@
         <v>23.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>16.6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -2650,43 +2650,43 @@
         <v>69</v>
       </c>
       <c r="H21" t="n">
-        <v>0.767874629411765</v>
+        <v>0.778837358823529</v>
       </c>
       <c r="I21" t="n">
-        <v>0.76874555</v>
+        <v>0.7968561</v>
       </c>
       <c r="J21" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K21" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="L21" t="n">
-        <v>0.821938805882353</v>
+        <v>0.814749435294118</v>
       </c>
       <c r="M21" t="n">
-        <v>0.83702055</v>
+        <v>0.8327089</v>
       </c>
       <c r="N21" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="O21" t="n">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P21" t="n">
-        <v>0.837296423529412</v>
+        <v>0.823176064705882</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.8501858</v>
+        <v>0.8434159</v>
       </c>
       <c r="R21" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="S21" t="n">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="T21" t="n">
-        <v>0.599001670588235</v>
+        <v>0.596569923529412</v>
       </c>
       <c r="U21" t="n">
         <v>0.5</v>
@@ -2695,10 +2695,10 @@
         <v>78</v>
       </c>
       <c r="W21" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="X21" t="n">
-        <v>0.2338436</v>
+        <v>0.229520405882353</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2707,13 +2707,13 @@
         <v>79</v>
       </c>
       <c r="AA21" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AB21" t="n">
-        <v>61.4</v>
+        <v>63</v>
       </c>
       <c r="AC21" t="n">
-        <v>58</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="22">
@@ -2739,34 +2739,34 @@
         <v>69</v>
       </c>
       <c r="H22" t="n">
-        <v>0.785388917647059</v>
+        <v>0.792193094117647</v>
       </c>
       <c r="I22" t="n">
-        <v>0.77456035</v>
+        <v>0.7908815</v>
       </c>
       <c r="J22" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K22" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L22" t="n">
-        <v>0.841798447058824</v>
+        <v>0.842975694117647</v>
       </c>
       <c r="M22" t="n">
-        <v>0.8416713</v>
+        <v>0.8420191</v>
       </c>
       <c r="N22" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P22" t="n">
-        <v>0.860869070588235</v>
+        <v>0.860518217647059</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.86451855</v>
+        <v>0.8669617</v>
       </c>
       <c r="R22" t="n">
         <v>30</v>
@@ -2775,34 +2775,34 @@
         <v>28</v>
       </c>
       <c r="T22" t="n">
-        <v>0.757666576470588</v>
+        <v>0.755981441176471</v>
       </c>
       <c r="U22" t="n">
-        <v>0.792076</v>
+        <v>0.8235167</v>
       </c>
       <c r="V22" t="n">
         <v>65</v>
       </c>
       <c r="W22" t="n">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="X22" t="n">
-        <v>0.560960978823529</v>
+        <v>0.557285417058824</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.7264016</v>
+        <v>0.727835</v>
       </c>
       <c r="Z22" t="n">
         <v>65</v>
       </c>
       <c r="AA22" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AB22" t="n">
-        <v>40</v>
+        <v>38.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>43.6</v>
+        <v>40.6</v>
       </c>
     </row>
     <row r="23">
@@ -2831,7 +2831,7 @@
         <v>0.783214935294118</v>
       </c>
       <c r="I23" t="n">
-        <v>0.7979418</v>
+        <v>0.8074039</v>
       </c>
       <c r="J23" t="n">
         <v>20</v>
@@ -2843,22 +2843,22 @@
         <v>0.844015847058823</v>
       </c>
       <c r="M23" t="n">
-        <v>0.86154675</v>
+        <v>0.8649322</v>
       </c>
       <c r="N23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P23" t="n">
         <v>0.866947917647059</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.89152615</v>
+        <v>0.8919117</v>
       </c>
       <c r="R23" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S23" t="n">
         <v>13</v>
@@ -2867,19 +2867,19 @@
         <v>0.813631388235294</v>
       </c>
       <c r="U23" t="n">
-        <v>0.833321</v>
+        <v>0.8501258</v>
       </c>
       <c r="V23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W23" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="X23" t="n">
         <v>0.746583891764706</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.87290235</v>
+        <v>0.8847845</v>
       </c>
       <c r="Z23" t="n">
         <v>42</v>
@@ -2891,7 +2891,7 @@
         <v>24.2</v>
       </c>
       <c r="AC23" t="n">
-        <v>17.6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -2917,55 +2917,55 @@
         <v>74</v>
       </c>
       <c r="H24" t="n">
-        <v>0.765830894117647</v>
+        <v>0.774972317647059</v>
       </c>
       <c r="I24" t="n">
-        <v>0.76725925</v>
+        <v>0.7943867</v>
       </c>
       <c r="J24" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K24" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="L24" t="n">
-        <v>0.817419394117647</v>
+        <v>0.809731505882353</v>
       </c>
       <c r="M24" t="n">
-        <v>0.8310513</v>
+        <v>0.83231</v>
       </c>
       <c r="N24" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="O24" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="P24" t="n">
-        <v>0.832190952941177</v>
+        <v>0.817929223529412</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.8449872</v>
+        <v>0.8409457</v>
       </c>
       <c r="R24" t="n">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="S24" t="n">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="T24" t="n">
-        <v>0.598975041176471</v>
+        <v>0.596518111764706</v>
       </c>
       <c r="U24" t="n">
         <v>0.5</v>
       </c>
       <c r="V24" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W24" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="X24" t="n">
-        <v>0.233749176470588</v>
+        <v>0.2294151</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2974,13 +2974,13 @@
         <v>80</v>
       </c>
       <c r="AA24" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AB24" t="n">
-        <v>64.2</v>
+        <v>66.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>63.6</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="25">
@@ -3006,70 +3006,70 @@
         <v>74</v>
       </c>
       <c r="H25" t="n">
-        <v>0.775753758823529</v>
+        <v>0.780568235294118</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7673754</v>
+        <v>0.7754051</v>
       </c>
       <c r="J25" t="n">
         <v>32</v>
       </c>
       <c r="K25" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="L25" t="n">
-        <v>0.833891888235294</v>
+        <v>0.834907564705882</v>
       </c>
       <c r="M25" t="n">
-        <v>0.83436835</v>
+        <v>0.835281</v>
       </c>
       <c r="N25" t="n">
         <v>33</v>
       </c>
       <c r="O25" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P25" t="n">
-        <v>0.854720411764706</v>
+        <v>0.854575541176471</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.8577414</v>
+        <v>0.8605093</v>
       </c>
       <c r="R25" t="n">
         <v>39</v>
       </c>
       <c r="S25" t="n">
+        <v>36</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.766569652941177</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.825793</v>
+      </c>
+      <c r="V25" t="n">
+        <v>62</v>
+      </c>
+      <c r="W25" t="n">
         <v>39</v>
       </c>
-      <c r="T25" t="n">
-        <v>0.768862052941176</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0.7986322</v>
-      </c>
-      <c r="V25" t="n">
-        <v>61</v>
-      </c>
-      <c r="W25" t="n">
-        <v>62</v>
-      </c>
       <c r="X25" t="n">
-        <v>0.592035618235294</v>
+        <v>0.582625170588235</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.75436465</v>
+        <v>0.7771011</v>
       </c>
       <c r="Z25" t="n">
         <v>62</v>
       </c>
       <c r="AA25" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB25" t="n">
-        <v>45.4</v>
+        <v>45.6</v>
       </c>
       <c r="AC25" t="n">
-        <v>48.8</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="26">
@@ -3098,7 +3098,7 @@
         <v>0.783081323529412</v>
       </c>
       <c r="I26" t="n">
-        <v>0.7979418</v>
+        <v>0.8074039</v>
       </c>
       <c r="J26" t="n">
         <v>21</v>
@@ -3110,55 +3110,55 @@
         <v>0.844291488235294</v>
       </c>
       <c r="M26" t="n">
-        <v>0.86148745</v>
+        <v>0.864783</v>
       </c>
       <c r="N26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P26" t="n">
         <v>0.867501194117647</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.89290495</v>
+        <v>0.8946198</v>
       </c>
       <c r="R26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="S26" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T26" t="n">
         <v>0.814076647058824</v>
       </c>
       <c r="U26" t="n">
-        <v>0.8365598</v>
+        <v>0.8566034</v>
       </c>
       <c r="V26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X26" t="n">
         <v>0.748009709411765</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.8786855</v>
+        <v>0.8963508</v>
       </c>
       <c r="Z26" t="n">
         <v>40</v>
       </c>
       <c r="AA26" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AB26" t="n">
         <v>21.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>13.4</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="27">
@@ -3184,43 +3184,43 @@
         <v>79</v>
       </c>
       <c r="H27" t="n">
-        <v>0.765521211764706</v>
+        <v>0.774639252941177</v>
       </c>
       <c r="I27" t="n">
-        <v>0.76717885</v>
+        <v>0.7944848</v>
       </c>
       <c r="J27" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K27" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="L27" t="n">
-        <v>0.817253452941176</v>
+        <v>0.809615476470588</v>
       </c>
       <c r="M27" t="n">
-        <v>0.83054385</v>
+        <v>0.83231</v>
       </c>
       <c r="N27" t="n">
+        <v>60</v>
+      </c>
+      <c r="O27" t="n">
         <v>56</v>
       </c>
-      <c r="O27" t="n">
-        <v>54</v>
-      </c>
       <c r="P27" t="n">
-        <v>0.831924670588235</v>
+        <v>0.817798923529412</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.84368875</v>
+        <v>0.8409783</v>
       </c>
       <c r="R27" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="S27" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T27" t="n">
-        <v>0.598854729411765</v>
+        <v>0.596451941176471</v>
       </c>
       <c r="U27" t="n">
         <v>0.5</v>
@@ -3229,10 +3229,10 @@
         <v>81</v>
       </c>
       <c r="W27" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="X27" t="n">
-        <v>0.233580517647059</v>
+        <v>0.229325117647059</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -3241,13 +3241,13 @@
         <v>81</v>
       </c>
       <c r="AA27" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AB27" t="n">
-        <v>65.6</v>
+        <v>67.2</v>
       </c>
       <c r="AC27" t="n">
-        <v>67.2</v>
+        <v>62.8</v>
       </c>
     </row>
     <row r="28">
@@ -3273,70 +3273,70 @@
         <v>79</v>
       </c>
       <c r="H28" t="n">
-        <v>0.7841265</v>
+        <v>0.790276858823529</v>
       </c>
       <c r="I28" t="n">
-        <v>0.772543</v>
+        <v>0.786047</v>
       </c>
       <c r="J28" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K28" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L28" t="n">
-        <v>0.840390229411765</v>
+        <v>0.841423111764706</v>
       </c>
       <c r="M28" t="n">
-        <v>0.8408623</v>
+        <v>0.8414781</v>
       </c>
       <c r="N28" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O28" t="n">
         <v>29</v>
       </c>
       <c r="P28" t="n">
-        <v>0.8591419</v>
+        <v>0.858670005882353</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.86371035</v>
+        <v>0.8668163</v>
       </c>
       <c r="R28" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S28" t="n">
         <v>29</v>
       </c>
       <c r="T28" t="n">
-        <v>0.755311894117647</v>
+        <v>0.753800152941177</v>
       </c>
       <c r="U28" t="n">
-        <v>0.79307565</v>
+        <v>0.8237086</v>
       </c>
       <c r="V28" t="n">
         <v>66</v>
       </c>
       <c r="W28" t="n">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="X28" t="n">
-        <v>0.556702272941176</v>
+        <v>0.553573923529412</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.74832805</v>
+        <v>0.7635853</v>
       </c>
       <c r="Z28" t="n">
         <v>66</v>
       </c>
       <c r="AA28" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AB28" t="n">
-        <v>41.8</v>
+        <v>41.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>44.2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29">
@@ -3365,67 +3365,67 @@
         <v>0.782493905882353</v>
       </c>
       <c r="I29" t="n">
-        <v>0.7970206</v>
+        <v>0.8055615</v>
       </c>
       <c r="J29" t="n">
         <v>24</v>
       </c>
       <c r="K29" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L29" t="n">
         <v>0.843726294117647</v>
       </c>
       <c r="M29" t="n">
-        <v>0.86148745</v>
+        <v>0.864783</v>
       </c>
       <c r="N29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P29" t="n">
         <v>0.867077094117647</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.89280845</v>
+        <v>0.8944268</v>
       </c>
       <c r="R29" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="S29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T29" t="n">
         <v>0.814152223529412</v>
       </c>
       <c r="U29" t="n">
-        <v>0.8365598</v>
+        <v>0.8566034</v>
       </c>
       <c r="V29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W29" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="X29" t="n">
         <v>0.748401472352941</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.8786855</v>
+        <v>0.8963508</v>
       </c>
       <c r="Z29" t="n">
         <v>39</v>
       </c>
       <c r="AA29" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AB29" t="n">
         <v>23</v>
       </c>
       <c r="AC29" t="n">
-        <v>14.4</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="30">
@@ -3451,43 +3451,43 @@
         <v>84</v>
       </c>
       <c r="H30" t="n">
-        <v>0.7648501</v>
+        <v>0.774208688235294</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7668416</v>
+        <v>0.7944848</v>
       </c>
       <c r="J30" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K30" t="n">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="L30" t="n">
-        <v>0.817066652941176</v>
+        <v>0.8092105</v>
       </c>
       <c r="M30" t="n">
-        <v>0.8305435</v>
+        <v>0.83231</v>
       </c>
       <c r="N30" t="n">
+        <v>62</v>
+      </c>
+      <c r="O30" t="n">
         <v>57</v>
       </c>
-      <c r="O30" t="n">
-        <v>55</v>
-      </c>
       <c r="P30" t="n">
-        <v>0.831781452941176</v>
+        <v>0.8173645</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.84368855</v>
+        <v>0.8409783</v>
       </c>
       <c r="R30" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="S30" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T30" t="n">
-        <v>0.598819441176471</v>
+        <v>0.596441064705882</v>
       </c>
       <c r="U30" t="n">
         <v>0.5</v>
@@ -3496,10 +3496,10 @@
         <v>82</v>
       </c>
       <c r="W30" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="X30" t="n">
-        <v>0.233502158823529</v>
+        <v>0.229281994117647</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3508,13 +3508,13 @@
         <v>82</v>
       </c>
       <c r="AA30" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AB30" t="n">
-        <v>66.6</v>
+        <v>68.8</v>
       </c>
       <c r="AC30" t="n">
-        <v>68.4</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="31">
@@ -3540,46 +3540,46 @@
         <v>84</v>
       </c>
       <c r="H31" t="n">
-        <v>0.785540352941177</v>
+        <v>0.790575447058824</v>
       </c>
       <c r="I31" t="n">
-        <v>0.7779346</v>
+        <v>0.772185</v>
       </c>
       <c r="J31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K31" t="n">
+        <v>62</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.843175464705882</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.8371283</v>
+      </c>
+      <c r="N31" t="n">
         <v>26</v>
       </c>
-      <c r="L31" t="n">
-        <v>0.842091011764706</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.83959405</v>
-      </c>
-      <c r="N31" t="n">
-        <v>28</v>
-      </c>
       <c r="O31" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P31" t="n">
-        <v>0.861154035294118</v>
+        <v>0.860974329411765</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.86242555</v>
+        <v>0.8633287</v>
       </c>
       <c r="R31" t="n">
         <v>29</v>
       </c>
       <c r="S31" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T31" t="n">
-        <v>0.691318382352941</v>
+        <v>0.689869435294118</v>
       </c>
       <c r="U31" t="n">
-        <v>0.7067223</v>
+        <v>0.7212189</v>
       </c>
       <c r="V31" t="n">
         <v>67</v>
@@ -3588,10 +3588,10 @@
         <v>67</v>
       </c>
       <c r="X31" t="n">
-        <v>0.425125782352941</v>
+        <v>0.422177652941176</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.4920714</v>
+        <v>0.559017</v>
       </c>
       <c r="Z31" t="n">
         <v>67</v>
@@ -3600,10 +3600,10 @@
         <v>67</v>
       </c>
       <c r="AB31" t="n">
-        <v>40.2</v>
+        <v>40</v>
       </c>
       <c r="AC31" t="n">
-        <v>44.4</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="32">
@@ -3632,22 +3632,22 @@
         <v>0.7825949</v>
       </c>
       <c r="I32" t="n">
-        <v>0.79670025</v>
+        <v>0.8055615</v>
       </c>
       <c r="J32" t="n">
         <v>23</v>
       </c>
       <c r="K32" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L32" t="n">
         <v>0.844068552941176</v>
       </c>
       <c r="M32" t="n">
-        <v>0.8635041</v>
+        <v>0.868734</v>
       </c>
       <c r="N32" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O32" t="n">
         <v>7</v>
@@ -3656,43 +3656,43 @@
         <v>0.867618129411765</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.8929433</v>
+        <v>0.8944268</v>
       </c>
       <c r="R32" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S32" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T32" t="n">
         <v>0.814309964705882</v>
       </c>
       <c r="U32" t="n">
-        <v>0.8350493</v>
+        <v>0.8535824</v>
       </c>
       <c r="V32" t="n">
+        <v>7</v>
+      </c>
+      <c r="W32" t="n">
         <v>6</v>
-      </c>
-      <c r="W32" t="n">
-        <v>10</v>
       </c>
       <c r="X32" t="n">
         <v>0.748604178235294</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.88002485</v>
+        <v>0.8961212</v>
       </c>
       <c r="Z32" t="n">
         <v>38</v>
       </c>
       <c r="AA32" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AB32" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AC32" t="n">
-        <v>11.8</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="33">
@@ -3718,43 +3718,43 @@
         <v>89</v>
       </c>
       <c r="H33" t="n">
-        <v>0.764329811764706</v>
+        <v>0.774164111764706</v>
       </c>
       <c r="I33" t="n">
-        <v>0.76667115</v>
+        <v>0.7944848</v>
       </c>
       <c r="J33" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K33" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="L33" t="n">
-        <v>0.815648235294118</v>
+        <v>0.808860582352941</v>
       </c>
       <c r="M33" t="n">
-        <v>0.83055765</v>
+        <v>0.83231</v>
       </c>
       <c r="N33" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O33" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P33" t="n">
-        <v>0.829997905882353</v>
+        <v>0.816788982352941</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.84370485</v>
+        <v>0.8409783</v>
       </c>
       <c r="R33" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="S33" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="T33" t="n">
-        <v>0.597874347058823</v>
+        <v>0.595660882352941</v>
       </c>
       <c r="U33" t="n">
         <v>0.5</v>
@@ -3763,10 +3763,10 @@
         <v>83</v>
       </c>
       <c r="W33" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="X33" t="n">
-        <v>0.232319841176471</v>
+        <v>0.228275905882353</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3775,13 +3775,13 @@
         <v>83</v>
       </c>
       <c r="AA33" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AB33" t="n">
-        <v>68.8</v>
+        <v>70</v>
       </c>
       <c r="AC33" t="n">
-        <v>68.2</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="34">
@@ -3807,70 +3807,70 @@
         <v>89</v>
       </c>
       <c r="H34" t="n">
-        <v>0.784053282352941</v>
+        <v>0.790922623529412</v>
       </c>
       <c r="I34" t="n">
-        <v>0.77049135</v>
+        <v>0.7761736</v>
       </c>
       <c r="J34" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K34" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="L34" t="n">
-        <v>0.842823970588235</v>
+        <v>0.844166047058823</v>
       </c>
       <c r="M34" t="n">
-        <v>0.8425476</v>
+        <v>0.8424338</v>
       </c>
       <c r="N34" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="O34" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P34" t="n">
-        <v>0.862256529411765</v>
+        <v>0.862057417647059</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.86631195</v>
+        <v>0.8690704</v>
       </c>
       <c r="R34" t="n">
         <v>28</v>
       </c>
       <c r="S34" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T34" t="n">
-        <v>0.642604188235294</v>
+        <v>0.641857876470588</v>
       </c>
       <c r="U34" t="n">
-        <v>0.5713021</v>
+        <v>0.5</v>
       </c>
       <c r="V34" t="n">
         <v>73</v>
       </c>
       <c r="W34" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="X34" t="n">
-        <v>0.324233835294118</v>
+        <v>0.323196105882353</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.1621169</v>
+        <v>0</v>
       </c>
       <c r="Z34" t="n">
         <v>73</v>
       </c>
       <c r="AA34" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AB34" t="n">
-        <v>42.8</v>
+        <v>40.4</v>
       </c>
       <c r="AC34" t="n">
-        <v>48.4</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="35">
@@ -3899,22 +3899,22 @@
         <v>0.782954711764706</v>
       </c>
       <c r="I35" t="n">
-        <v>0.79675425</v>
+        <v>0.8060208</v>
       </c>
       <c r="J35" t="n">
         <v>22</v>
       </c>
       <c r="K35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L35" t="n">
         <v>0.844307941176471</v>
       </c>
       <c r="M35" t="n">
-        <v>0.8631339</v>
+        <v>0.868396</v>
       </c>
       <c r="N35" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O35" t="n">
         <v>8</v>
@@ -3923,43 +3923,43 @@
         <v>0.867804064705882</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.89294715</v>
+        <v>0.8945883</v>
       </c>
       <c r="R35" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S35" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T35" t="n">
         <v>0.814292652941176</v>
       </c>
       <c r="U35" t="n">
-        <v>0.8350493</v>
+        <v>0.8535824</v>
       </c>
       <c r="V35" t="n">
+        <v>8</v>
+      </c>
+      <c r="W35" t="n">
         <v>7</v>
-      </c>
-      <c r="W35" t="n">
-        <v>11</v>
       </c>
       <c r="X35" t="n">
         <v>0.748721246470588</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.88006685</v>
+        <v>0.8961212</v>
       </c>
       <c r="Z35" t="n">
         <v>37</v>
       </c>
       <c r="AA35" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AB35" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="AC35" t="n">
-        <v>11.6</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="36">
@@ -3985,43 +3985,43 @@
         <v>94</v>
       </c>
       <c r="H36" t="n">
-        <v>0.763889876470588</v>
+        <v>0.774258705882353</v>
       </c>
       <c r="I36" t="n">
-        <v>0.7665865</v>
+        <v>0.7944848</v>
       </c>
       <c r="J36" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K36" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="L36" t="n">
-        <v>0.8149455</v>
+        <v>0.808788611764706</v>
       </c>
       <c r="M36" t="n">
-        <v>0.83079855</v>
+        <v>0.83231</v>
       </c>
       <c r="N36" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O36" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="P36" t="n">
-        <v>0.829158205882353</v>
+        <v>0.816636988235294</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.84386475</v>
+        <v>0.8411151</v>
       </c>
       <c r="R36" t="n">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="S36" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T36" t="n">
-        <v>0.597616982352941</v>
+        <v>0.595462194117647</v>
       </c>
       <c r="U36" t="n">
         <v>0.5</v>
@@ -4030,10 +4030,10 @@
         <v>85</v>
       </c>
       <c r="W36" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X36" t="n">
-        <v>0.231905576470588</v>
+        <v>0.227974305882353</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -4042,13 +4042,13 @@
         <v>85</v>
       </c>
       <c r="AA36" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB36" t="n">
-        <v>70.4</v>
+        <v>70.6</v>
       </c>
       <c r="AC36" t="n">
-        <v>67.8</v>
+        <v>65.4</v>
       </c>
     </row>
     <row r="37">
@@ -4074,70 +4074,70 @@
         <v>94</v>
       </c>
       <c r="H37" t="n">
-        <v>0.784491482352941</v>
+        <v>0.790678964705882</v>
       </c>
       <c r="I37" t="n">
-        <v>0.77159795</v>
+        <v>0.7740168</v>
       </c>
       <c r="J37" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K37" t="n">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="L37" t="n">
-        <v>0.8464723</v>
+        <v>0.847326388235294</v>
       </c>
       <c r="M37" t="n">
-        <v>0.84705725</v>
+        <v>0.8467898</v>
       </c>
       <c r="N37" t="n">
         <v>7</v>
       </c>
       <c r="O37" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P37" t="n">
-        <v>0.867017729411765</v>
+        <v>0.866448917647059</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.8722605</v>
+        <v>0.8744841</v>
       </c>
       <c r="R37" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="S37" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="T37" t="n">
-        <v>0.613699858823529</v>
+        <v>0.612953370588235</v>
       </c>
       <c r="U37" t="n">
         <v>0.5</v>
       </c>
       <c r="V37" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W37" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X37" t="n">
-        <v>0.265048476470588</v>
+        <v>0.264019517647059</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
       </c>
       <c r="Z37" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AA37" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB37" t="n">
-        <v>37.8</v>
+        <v>37.4</v>
       </c>
       <c r="AC37" t="n">
-        <v>50.4</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="38">
@@ -4166,22 +4166,22 @@
         <v>0.783229882352941</v>
       </c>
       <c r="I38" t="n">
-        <v>0.7963786</v>
+        <v>0.8060761</v>
       </c>
       <c r="J38" t="n">
         <v>18</v>
       </c>
       <c r="K38" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L38" t="n">
         <v>0.844656482352941</v>
       </c>
       <c r="M38" t="n">
-        <v>0.86382385</v>
+        <v>0.8696949</v>
       </c>
       <c r="N38" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O38" t="n">
         <v>6</v>
@@ -4190,43 +4190,43 @@
         <v>0.8682075</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.8932495</v>
+        <v>0.8948899</v>
       </c>
       <c r="R38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T38" t="n">
         <v>0.814254594117647</v>
       </c>
       <c r="U38" t="n">
-        <v>0.8350493</v>
+        <v>0.8535824</v>
       </c>
       <c r="V38" t="n">
+        <v>9</v>
+      </c>
+      <c r="W38" t="n">
         <v>8</v>
-      </c>
-      <c r="W38" t="n">
-        <v>12</v>
       </c>
       <c r="X38" t="n">
         <v>0.749413428235294</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.8801345</v>
+        <v>0.8961212</v>
       </c>
       <c r="Z38" t="n">
         <v>35</v>
       </c>
       <c r="AA38" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AB38" t="n">
-        <v>17.8</v>
+        <v>17.6</v>
       </c>
       <c r="AC38" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="39">
@@ -4252,43 +4252,43 @@
         <v>99</v>
       </c>
       <c r="H39" t="n">
-        <v>0.763593741176471</v>
+        <v>0.774161941176471</v>
       </c>
       <c r="I39" t="n">
-        <v>0.76648245</v>
+        <v>0.7944848</v>
       </c>
       <c r="J39" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K39" t="n">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="L39" t="n">
-        <v>0.813725688235294</v>
+        <v>0.808300441176471</v>
       </c>
       <c r="M39" t="n">
-        <v>0.8314146</v>
+        <v>0.83231</v>
       </c>
       <c r="N39" t="n">
         <v>65</v>
       </c>
       <c r="O39" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="P39" t="n">
-        <v>0.827891594117647</v>
+        <v>0.816099558823529</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.84525805</v>
+        <v>0.8411236</v>
       </c>
       <c r="R39" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="S39" t="n">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="T39" t="n">
-        <v>0.597623611764706</v>
+        <v>0.595468882352941</v>
       </c>
       <c r="U39" t="n">
         <v>0.5</v>
@@ -4297,10 +4297,10 @@
         <v>84</v>
       </c>
       <c r="W39" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X39" t="n">
-        <v>0.231911394117647</v>
+        <v>0.227980058823529</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -4309,7 +4309,7 @@
         <v>84</v>
       </c>
       <c r="AA39" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AB39" t="n">
         <v>71.4</v>
@@ -4341,70 +4341,70 @@
         <v>99</v>
       </c>
       <c r="H40" t="n">
-        <v>0.786601576470588</v>
+        <v>0.790725205882353</v>
       </c>
       <c r="I40" t="n">
-        <v>0.77560865</v>
+        <v>0.7806154</v>
       </c>
       <c r="J40" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K40" t="n">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="L40" t="n">
-        <v>0.843777411764706</v>
+        <v>0.844375817647059</v>
       </c>
       <c r="M40" t="n">
-        <v>0.8450553</v>
+        <v>0.8437175</v>
       </c>
       <c r="N40" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O40" t="n">
         <v>25</v>
       </c>
       <c r="P40" t="n">
-        <v>0.864471894117647</v>
+        <v>0.8639259</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.8694948</v>
+        <v>0.8715105</v>
       </c>
       <c r="R40" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
       </c>
       <c r="T40" t="n">
-        <v>0.643552211764706</v>
+        <v>0.642718652941176</v>
       </c>
       <c r="U40" t="n">
-        <v>0.5717761</v>
+        <v>0.5</v>
       </c>
       <c r="V40" t="n">
         <v>72</v>
       </c>
       <c r="W40" t="n">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="X40" t="n">
-        <v>0.325423152941176</v>
+        <v>0.324323229411765</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.1627116</v>
+        <v>0</v>
       </c>
       <c r="Z40" t="n">
         <v>72</v>
       </c>
       <c r="AA40" t="n">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="AB40" t="n">
-        <v>39.8</v>
+        <v>38.6</v>
       </c>
       <c r="AC40" t="n">
-        <v>45.2</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41">
@@ -4433,22 +4433,22 @@
         <v>0.7835772</v>
       </c>
       <c r="I41" t="n">
-        <v>0.7963786</v>
+        <v>0.8060761</v>
       </c>
       <c r="J41" t="n">
         <v>17</v>
       </c>
       <c r="K41" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L41" t="n">
         <v>0.845017688235294</v>
       </c>
       <c r="M41" t="n">
-        <v>0.86536755</v>
+        <v>0.8727804</v>
       </c>
       <c r="N41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O41" t="n">
         <v>5</v>
@@ -4457,43 +4457,43 @@
         <v>0.868934305882353</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.89324975</v>
+        <v>0.8948899</v>
       </c>
       <c r="R41" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T41" t="n">
         <v>0.813577864705882</v>
       </c>
       <c r="U41" t="n">
-        <v>0.8293494</v>
+        <v>0.8421826</v>
       </c>
       <c r="V41" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="W41" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="X41" t="n">
         <v>0.749353104705882</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.87962175</v>
+        <v>0.8952021</v>
       </c>
       <c r="Z41" t="n">
         <v>36</v>
       </c>
       <c r="AA41" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="AB41" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="AC41" t="n">
-        <v>14</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="42">
@@ -4519,43 +4519,43 @@
         <v>104</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7636508</v>
+        <v>0.7741747</v>
       </c>
       <c r="I42" t="n">
-        <v>0.76655235</v>
+        <v>0.7951784</v>
       </c>
       <c r="J42" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K42" t="n">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="L42" t="n">
-        <v>0.813743876470588</v>
+        <v>0.808270270588235</v>
       </c>
       <c r="M42" t="n">
-        <v>0.83176335</v>
+        <v>0.83231</v>
       </c>
       <c r="N42" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O42" t="n">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="P42" t="n">
-        <v>0.827891241176471</v>
+        <v>0.816041052941176</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.84556785</v>
+        <v>0.8418056</v>
       </c>
       <c r="R42" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="S42" t="n">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="T42" t="n">
-        <v>0.597537405882353</v>
+        <v>0.595403511764706</v>
       </c>
       <c r="U42" t="n">
         <v>0.5</v>
@@ -4567,7 +4567,7 @@
         <v>85</v>
       </c>
       <c r="X42" t="n">
-        <v>0.231799352941176</v>
+        <v>0.227884235294118</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -4579,10 +4579,10 @@
         <v>85</v>
       </c>
       <c r="AB42" t="n">
-        <v>72</v>
+        <v>72.2</v>
       </c>
       <c r="AC42" t="n">
-        <v>66</v>
+        <v>65.4</v>
       </c>
     </row>
     <row r="43">
@@ -4608,46 +4608,46 @@
         <v>104</v>
       </c>
       <c r="H43" t="n">
-        <v>0.795245823529412</v>
+        <v>0.797351852941176</v>
       </c>
       <c r="I43" t="n">
-        <v>0.78568295</v>
+        <v>0.783303</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="L43" t="n">
-        <v>0.850816729411765</v>
+        <v>0.851031905882353</v>
       </c>
       <c r="M43" t="n">
-        <v>0.8502265</v>
+        <v>0.8470272</v>
       </c>
       <c r="N43" t="n">
         <v>4</v>
       </c>
       <c r="O43" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P43" t="n">
-        <v>0.870146488235294</v>
+        <v>0.869272194117647</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.8741635</v>
+        <v>0.8742823</v>
       </c>
       <c r="R43" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S43" t="n">
         <v>21</v>
       </c>
       <c r="T43" t="n">
-        <v>0.654389082352941</v>
+        <v>0.650790135294118</v>
       </c>
       <c r="U43" t="n">
-        <v>0.64880555</v>
+        <v>0.5985209</v>
       </c>
       <c r="V43" t="n">
         <v>71</v>
@@ -4656,10 +4656,10 @@
         <v>71</v>
       </c>
       <c r="X43" t="n">
-        <v>0.347834288235294</v>
+        <v>0.341010505882353</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.3264157</v>
+        <v>0.210468</v>
       </c>
       <c r="Z43" t="n">
         <v>71</v>
@@ -4668,10 +4668,10 @@
         <v>71</v>
       </c>
       <c r="AB43" t="n">
-        <v>30.6</v>
+        <v>31</v>
       </c>
       <c r="AC43" t="n">
-        <v>40.2</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44">
@@ -4700,7 +4700,7 @@
         <v>0.781830458823529</v>
       </c>
       <c r="I44" t="n">
-        <v>0.7955042</v>
+        <v>0.8043273</v>
       </c>
       <c r="J44" t="n">
         <v>28</v>
@@ -4712,10 +4712,10 @@
         <v>0.845290070588235</v>
       </c>
       <c r="M44" t="n">
-        <v>0.86643755</v>
+        <v>0.8739373</v>
       </c>
       <c r="N44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O44" t="n">
         <v>3</v>
@@ -4724,10 +4724,10 @@
         <v>0.869808176470588</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.89451615</v>
+        <v>0.8962312</v>
       </c>
       <c r="R44" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S44" t="n">
         <v>3</v>
@@ -4736,31 +4736,31 @@
         <v>0.814240182352941</v>
       </c>
       <c r="U44" t="n">
-        <v>0.82728795</v>
+        <v>0.8394908</v>
       </c>
       <c r="V44" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W44" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X44" t="n">
         <v>0.752594024117647</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.8827982</v>
+        <v>0.8949722</v>
       </c>
       <c r="Z44" t="n">
         <v>31</v>
       </c>
       <c r="AA44" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB44" t="n">
         <v>17</v>
       </c>
-      <c r="AB44" t="n">
-        <v>17.4</v>
-      </c>
       <c r="AC44" t="n">
-        <v>12</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="45">
@@ -4786,55 +4786,55 @@
         <v>109</v>
       </c>
       <c r="H45" t="n">
-        <v>0.755284423529412</v>
+        <v>0.763916064705882</v>
       </c>
       <c r="I45" t="n">
-        <v>0.76584295</v>
+        <v>0.7950735</v>
       </c>
       <c r="J45" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="K45" t="n">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="L45" t="n">
-        <v>0.811903605882353</v>
+        <v>0.801160870588235</v>
       </c>
       <c r="M45" t="n">
-        <v>0.83108835</v>
+        <v>0.8288523</v>
       </c>
       <c r="N45" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="O45" t="n">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="P45" t="n">
-        <v>0.827548105882353</v>
+        <v>0.809492358823529</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.8450619</v>
+        <v>0.8418601</v>
       </c>
       <c r="R45" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="S45" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="T45" t="n">
-        <v>0.584609223529412</v>
+        <v>0.582526029411765</v>
       </c>
       <c r="U45" t="n">
         <v>0.5</v>
       </c>
       <c r="V45" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W45" t="n">
         <v>86</v>
       </c>
       <c r="X45" t="n">
-        <v>0.200320217647059</v>
+        <v>0.195611947058824</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4846,10 +4846,10 @@
         <v>86</v>
       </c>
       <c r="AB45" t="n">
-        <v>75.8</v>
+        <v>76.8</v>
       </c>
       <c r="AC45" t="n">
-        <v>68.4</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46">
@@ -4875,70 +4875,70 @@
         <v>109</v>
       </c>
       <c r="H46" t="n">
-        <v>0.788767858823529</v>
+        <v>0.791859364705882</v>
       </c>
       <c r="I46" t="n">
-        <v>0.77708465</v>
+        <v>0.7824097</v>
       </c>
       <c r="J46" t="n">
+        <v>7</v>
+      </c>
+      <c r="K46" t="n">
+        <v>43</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.848285535294118</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.8461902</v>
+      </c>
+      <c r="N46" t="n">
         <v>6</v>
       </c>
-      <c r="K46" t="n">
-        <v>27</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.849805835294118</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.85038685</v>
-      </c>
-      <c r="N46" t="n">
-        <v>5</v>
-      </c>
       <c r="O46" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P46" t="n">
-        <v>0.871647270588235</v>
+        <v>0.868930558823529</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.8756194</v>
+        <v>0.8741221</v>
       </c>
       <c r="R46" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S46" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="T46" t="n">
-        <v>0.6169213</v>
+        <v>0.600495488235294</v>
       </c>
       <c r="U46" t="n">
         <v>0.5</v>
       </c>
       <c r="V46" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W46" t="n">
         <v>87</v>
       </c>
       <c r="X46" t="n">
-        <v>0.270208947058824</v>
+        <v>0.238638705882353</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
       </c>
       <c r="Z46" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA46" t="n">
         <v>87</v>
       </c>
       <c r="AB46" t="n">
-        <v>32.6</v>
+        <v>34.6</v>
       </c>
       <c r="AC46" t="n">
-        <v>47.8</v>
+        <v>52.6</v>
       </c>
     </row>
     <row r="47">
@@ -4967,7 +4967,7 @@
         <v>0.781830458823529</v>
       </c>
       <c r="I47" t="n">
-        <v>0.7955042</v>
+        <v>0.8043273</v>
       </c>
       <c r="J47" t="n">
         <v>29</v>
@@ -4979,10 +4979,10 @@
         <v>0.845290070588235</v>
       </c>
       <c r="M47" t="n">
-        <v>0.86643755</v>
+        <v>0.8739373</v>
       </c>
       <c r="N47" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O47" t="n">
         <v>4</v>
@@ -4991,10 +4991,10 @@
         <v>0.869808176470588</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.89451615</v>
+        <v>0.8962312</v>
       </c>
       <c r="R47" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S47" t="n">
         <v>4</v>
@@ -5003,31 +5003,31 @@
         <v>0.814240182352941</v>
       </c>
       <c r="U47" t="n">
-        <v>0.82728795</v>
+        <v>0.8394908</v>
       </c>
       <c r="V47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W47" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X47" t="n">
         <v>0.752594024117647</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.8827982</v>
+        <v>0.8949722</v>
       </c>
       <c r="Z47" t="n">
         <v>32</v>
       </c>
       <c r="AA47" t="n">
+        <v>33</v>
+      </c>
+      <c r="AB47" t="n">
         <v>18</v>
       </c>
-      <c r="AB47" t="n">
-        <v>18.4</v>
-      </c>
       <c r="AC47" t="n">
-        <v>13</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="48">
@@ -5053,55 +5053,55 @@
         <v>114</v>
       </c>
       <c r="H48" t="n">
-        <v>0.754287317647059</v>
+        <v>0.762765676470588</v>
       </c>
       <c r="I48" t="n">
-        <v>0.7657499</v>
+        <v>0.7950735</v>
       </c>
       <c r="J48" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K48" t="n">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="L48" t="n">
-        <v>0.811220823529412</v>
+        <v>0.799919352941176</v>
       </c>
       <c r="M48" t="n">
-        <v>0.8305922</v>
+        <v>0.8289586</v>
       </c>
       <c r="N48" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="O48" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="P48" t="n">
-        <v>0.826874588235294</v>
+        <v>0.808157229411765</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.84483425</v>
+        <v>0.8419246</v>
       </c>
       <c r="R48" t="n">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="S48" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T48" t="n">
-        <v>0.584609223529412</v>
+        <v>0.582526029411765</v>
       </c>
       <c r="U48" t="n">
         <v>0.5</v>
       </c>
       <c r="V48" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W48" t="n">
         <v>88</v>
       </c>
       <c r="X48" t="n">
-        <v>0.200320217647059</v>
+        <v>0.195611947058824</v>
       </c>
       <c r="Y48" t="n">
         <v>0</v>
@@ -5113,10 +5113,10 @@
         <v>88</v>
       </c>
       <c r="AB48" t="n">
-        <v>77</v>
+        <v>79.8</v>
       </c>
       <c r="AC48" t="n">
-        <v>70.6</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49">
@@ -5142,46 +5142,46 @@
         <v>114</v>
       </c>
       <c r="H49" t="n">
-        <v>0.7903615</v>
+        <v>0.793667117647059</v>
       </c>
       <c r="I49" t="n">
-        <v>0.78022495</v>
+        <v>0.7822605</v>
       </c>
       <c r="J49" t="n">
         <v>5</v>
       </c>
       <c r="K49" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="L49" t="n">
-        <v>0.848809188235294</v>
+        <v>0.848744564705882</v>
       </c>
       <c r="M49" t="n">
-        <v>0.85073585</v>
+        <v>0.8474393</v>
       </c>
       <c r="N49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O49" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P49" t="n">
-        <v>0.868360788235294</v>
+        <v>0.866727788235294</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.8741282</v>
+        <v>0.8745959</v>
       </c>
       <c r="R49" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="S49" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="T49" t="n">
-        <v>0.659569888235294</v>
+        <v>0.656945517647059</v>
       </c>
       <c r="U49" t="n">
-        <v>0.65800915</v>
+        <v>0.6414863</v>
       </c>
       <c r="V49" t="n">
         <v>70</v>
@@ -5190,10 +5190,10 @@
         <v>70</v>
       </c>
       <c r="X49" t="n">
-        <v>0.357107070588235</v>
+        <v>0.353100764705882</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.34494315</v>
+        <v>0.3013443</v>
       </c>
       <c r="Z49" t="n">
         <v>70</v>
@@ -5202,10 +5202,10 @@
         <v>70</v>
       </c>
       <c r="AB49" t="n">
-        <v>32.6</v>
+        <v>34.2</v>
       </c>
       <c r="AC49" t="n">
-        <v>40.6</v>
+        <v>44.8</v>
       </c>
     </row>
     <row r="50">
@@ -5234,10 +5234,10 @@
         <v>0.782248741176471</v>
       </c>
       <c r="I50" t="n">
-        <v>0.79555555</v>
+        <v>0.8043983</v>
       </c>
       <c r="J50" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K50" t="n">
         <v>14</v>
@@ -5246,7 +5246,7 @@
         <v>0.845697805882353</v>
       </c>
       <c r="M50" t="n">
-        <v>0.86666665</v>
+        <v>0.8740687</v>
       </c>
       <c r="N50" t="n">
         <v>8</v>
@@ -5258,10 +5258,10 @@
         <v>0.870147435294118</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.8948811</v>
+        <v>0.8964664</v>
       </c>
       <c r="R50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S50" t="n">
         <v>1</v>
@@ -5270,31 +5270,31 @@
         <v>0.814105088235294</v>
       </c>
       <c r="U50" t="n">
-        <v>0.82728795</v>
+        <v>0.8394908</v>
       </c>
       <c r="V50" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W50" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X50" t="n">
         <v>0.752924968235294</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.88278355</v>
+        <v>0.8949722</v>
       </c>
       <c r="Z50" t="n">
         <v>29</v>
       </c>
       <c r="AA50" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AB50" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="AC50" t="n">
-        <v>11.6</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="51">
@@ -5320,55 +5320,55 @@
         <v>119</v>
       </c>
       <c r="H51" t="n">
-        <v>0.754238182352941</v>
+        <v>0.763192941176471</v>
       </c>
       <c r="I51" t="n">
-        <v>0.76591755</v>
+        <v>0.7950735</v>
       </c>
       <c r="J51" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K51" t="n">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="L51" t="n">
-        <v>0.810760511764706</v>
+        <v>0.800022229411765</v>
       </c>
       <c r="M51" t="n">
-        <v>0.8305873</v>
+        <v>0.8289586</v>
       </c>
       <c r="N51" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="O51" t="n">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="P51" t="n">
-        <v>0.826225223529412</v>
+        <v>0.808147058823529</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.84485625</v>
+        <v>0.8419111</v>
       </c>
       <c r="R51" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="S51" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="T51" t="n">
-        <v>0.584625235294118</v>
+        <v>0.582523288235294</v>
       </c>
       <c r="U51" t="n">
         <v>0.5</v>
       </c>
       <c r="V51" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="W51" t="n">
         <v>89</v>
       </c>
       <c r="X51" t="n">
-        <v>0.200265294117647</v>
+        <v>0.195571929411765</v>
       </c>
       <c r="Y51" t="n">
         <v>0</v>
@@ -5380,10 +5380,10 @@
         <v>89</v>
       </c>
       <c r="AB51" t="n">
-        <v>77.4</v>
+        <v>79</v>
       </c>
       <c r="AC51" t="n">
-        <v>70.4</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52">
@@ -5409,46 +5409,46 @@
         <v>119</v>
       </c>
       <c r="H52" t="n">
-        <v>0.7865111</v>
+        <v>0.789758105882353</v>
       </c>
       <c r="I52" t="n">
-        <v>0.77833595</v>
+        <v>0.7826393</v>
       </c>
       <c r="J52" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K52" t="n">
+        <v>42</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.844550452941176</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.8454939</v>
+      </c>
+      <c r="N52" t="n">
+        <v>15</v>
+      </c>
+      <c r="O52" t="n">
+        <v>24</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.863617905882353</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.8723504</v>
+      </c>
+      <c r="R52" t="n">
         <v>25</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0.845576923529412</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8480244</v>
-      </c>
-      <c r="N52" t="n">
-        <v>10</v>
-      </c>
-      <c r="O52" t="n">
-        <v>21</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0.866002264705882</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0.87175405</v>
-      </c>
-      <c r="R52" t="n">
-        <v>24</v>
       </c>
       <c r="S52" t="n">
         <v>24</v>
       </c>
       <c r="T52" t="n">
-        <v>0.671458658823529</v>
+        <v>0.661552729411765</v>
       </c>
       <c r="U52" t="n">
-        <v>0.66933445</v>
+        <v>0.6548537</v>
       </c>
       <c r="V52" t="n">
         <v>69</v>
@@ -5457,10 +5457,10 @@
         <v>69</v>
       </c>
       <c r="X52" t="n">
-        <v>0.382506041176471</v>
+        <v>0.363093358823529</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.36890845</v>
+        <v>0.3294346</v>
       </c>
       <c r="Z52" t="n">
         <v>69</v>
@@ -5469,10 +5469,10 @@
         <v>69</v>
       </c>
       <c r="AB52" t="n">
-        <v>36.2</v>
+        <v>38.4</v>
       </c>
       <c r="AC52" t="n">
-        <v>41.6</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="53">
@@ -5501,10 +5501,10 @@
         <v>0.782242758823529</v>
       </c>
       <c r="I53" t="n">
-        <v>0.79555555</v>
+        <v>0.8043983</v>
       </c>
       <c r="J53" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K53" t="n">
         <v>15</v>
@@ -5513,7 +5513,7 @@
         <v>0.8456868</v>
       </c>
       <c r="M53" t="n">
-        <v>0.86666665</v>
+        <v>0.8740687</v>
       </c>
       <c r="N53" t="n">
         <v>9</v>
@@ -5525,10 +5525,10 @@
         <v>0.8701391</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.8948811</v>
+        <v>0.8964664</v>
       </c>
       <c r="R53" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S53" t="n">
         <v>2</v>
@@ -5537,31 +5537,31 @@
         <v>0.814105088235294</v>
       </c>
       <c r="U53" t="n">
-        <v>0.82728795</v>
+        <v>0.8394908</v>
       </c>
       <c r="V53" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W53" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="X53" t="n">
         <v>0.752924968235294</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.88278355</v>
+        <v>0.8949722</v>
       </c>
       <c r="Z53" t="n">
         <v>30</v>
       </c>
       <c r="AA53" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="AB53" t="n">
         <v>17</v>
       </c>
       <c r="AC53" t="n">
-        <v>12.6</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="54">
@@ -5587,43 +5587,43 @@
         <v>124</v>
       </c>
       <c r="H54" t="n">
-        <v>0.754218752941176</v>
+        <v>0.763149023529412</v>
       </c>
       <c r="I54" t="n">
-        <v>0.7659046</v>
+        <v>0.795043</v>
       </c>
       <c r="J54" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K54" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="L54" t="n">
-        <v>0.810708764705882</v>
+        <v>0.799982588235294</v>
       </c>
       <c r="M54" t="n">
-        <v>0.8305856</v>
+        <v>0.8289269</v>
       </c>
       <c r="N54" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="O54" t="n">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="P54" t="n">
-        <v>0.826159864705882</v>
+        <v>0.808116888235294</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.8447379</v>
+        <v>0.8418115</v>
       </c>
       <c r="R54" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="S54" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="T54" t="n">
-        <v>0.584607358823529</v>
+        <v>0.582506629411765</v>
       </c>
       <c r="U54" t="n">
         <v>0.5</v>
@@ -5635,7 +5635,7 @@
         <v>90</v>
       </c>
       <c r="X54" t="n">
-        <v>0.200234105882353</v>
+        <v>0.195532394117647</v>
       </c>
       <c r="Y54" t="n">
         <v>0</v>
@@ -5647,10 +5647,10 @@
         <v>90</v>
       </c>
       <c r="AB54" t="n">
-        <v>78.8</v>
+        <v>80.2</v>
       </c>
       <c r="AC54" t="n">
-        <v>71.6</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="55">
@@ -5676,46 +5676,46 @@
         <v>124</v>
       </c>
       <c r="H55" t="n">
-        <v>0.784965441176471</v>
+        <v>0.789835064705882</v>
       </c>
       <c r="I55" t="n">
-        <v>0.7767951</v>
+        <v>0.7823002</v>
       </c>
       <c r="J55" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K55" t="n">
+        <v>44</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.843312511764706</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.8419292</v>
+      </c>
+      <c r="N55" t="n">
+        <v>25</v>
+      </c>
+      <c r="O55" t="n">
         <v>28</v>
       </c>
-      <c r="L55" t="n">
-        <v>0.843227152941176</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.84443745</v>
-      </c>
-      <c r="N55" t="n">
-        <v>24</v>
-      </c>
-      <c r="O55" t="n">
-        <v>26</v>
-      </c>
       <c r="P55" t="n">
-        <v>0.863814652941176</v>
+        <v>0.862176635294118</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.8685684</v>
+        <v>0.8690284</v>
       </c>
       <c r="R55" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S55" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T55" t="n">
-        <v>0.688227976470588</v>
+        <v>0.685016941176471</v>
       </c>
       <c r="U55" t="n">
-        <v>0.6886885</v>
+        <v>0.689149</v>
       </c>
       <c r="V55" t="n">
         <v>68</v>
@@ -5724,10 +5724,10 @@
         <v>68</v>
       </c>
       <c r="X55" t="n">
-        <v>0.417384529411765</v>
+        <v>0.412132911764706</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.40626895</v>
+        <v>0.3818813</v>
       </c>
       <c r="Z55" t="n">
         <v>68</v>
@@ -5736,10 +5736,10 @@
         <v>68</v>
       </c>
       <c r="AB55" t="n">
-        <v>39.6</v>
+        <v>40.2</v>
       </c>
       <c r="AC55" t="n">
-        <v>43.2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56">
@@ -5768,67 +5768,67 @@
         <v>0.770179629411765</v>
       </c>
       <c r="I56" t="n">
-        <v>0.76002435</v>
+        <v>0.7498691</v>
       </c>
       <c r="J56" t="n">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="K56" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="L56" t="n">
         <v>0.828829664705882</v>
       </c>
       <c r="M56" t="n">
-        <v>0.82698295</v>
+        <v>0.8251362</v>
       </c>
       <c r="N56" t="n">
         <v>39</v>
       </c>
       <c r="O56" t="n">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="P56" t="n">
         <v>0.850289476470588</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.8526483</v>
+        <v>0.8550071</v>
       </c>
       <c r="R56" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S56" t="n">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="T56" t="n">
         <v>0.807606488235294</v>
       </c>
       <c r="U56" t="n">
-        <v>0.8157072</v>
+        <v>0.8200396</v>
       </c>
       <c r="V56" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="W56" t="n">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="X56" t="n">
         <v>0.719638522352941</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.7867123</v>
+        <v>0.7983117</v>
       </c>
       <c r="Z56" t="n">
         <v>52</v>
       </c>
       <c r="AA56" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB56" t="n">
-        <v>39</v>
+        <v>41.8</v>
       </c>
       <c r="AC56" t="n">
-        <v>52.4</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="57">
@@ -5854,70 +5854,70 @@
         <v>44</v>
       </c>
       <c r="H57" t="n">
-        <v>0.781962176470588</v>
+        <v>0.782393411764706</v>
       </c>
       <c r="I57" t="n">
-        <v>0.78198735</v>
+        <v>0.7849966</v>
       </c>
       <c r="J57" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K57" t="n">
+        <v>39</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.841384494117647</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.8489371</v>
+      </c>
+      <c r="N57" t="n">
+        <v>31</v>
+      </c>
+      <c r="O57" t="n">
         <v>19</v>
       </c>
-      <c r="L57" t="n">
-        <v>0.842321952941177</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.84715315</v>
-      </c>
-      <c r="N57" t="n">
-        <v>27</v>
-      </c>
-      <c r="O57" t="n">
+      <c r="P57" t="n">
+        <v>0.866068282352941</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.8742376</v>
+      </c>
+      <c r="R57" t="n">
         <v>23</v>
       </c>
-      <c r="P57" t="n">
-        <v>0.867699035294118</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>0.8753161</v>
-      </c>
-      <c r="R57" t="n">
-        <v>15</v>
-      </c>
       <c r="S57" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="T57" t="n">
-        <v>0.812914235294118</v>
+        <v>0.8150858</v>
       </c>
       <c r="U57" t="n">
-        <v>0.83116285</v>
+        <v>0.8399506</v>
       </c>
       <c r="V57" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="W57" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="X57" t="n">
-        <v>0.742845205294118</v>
+        <v>0.740522580588235</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.8348062</v>
+        <v>0.8403385</v>
       </c>
       <c r="Z57" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AA57" t="n">
         <v>51</v>
       </c>
       <c r="AB57" t="n">
-        <v>27.2</v>
+        <v>26.4</v>
       </c>
       <c r="AC57" t="n">
-        <v>26.2</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="58">
@@ -5943,70 +5943,70 @@
         <v>49</v>
       </c>
       <c r="H58" t="n">
-        <v>0.7669429</v>
+        <v>0.767793847058823</v>
       </c>
       <c r="I58" t="n">
-        <v>0.7714165</v>
+        <v>0.7766929</v>
       </c>
       <c r="J58" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="K58" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="L58" t="n">
-        <v>0.823752605882353</v>
+        <v>0.823291076470588</v>
       </c>
       <c r="M58" t="n">
-        <v>0.83181865</v>
+        <v>0.831552</v>
       </c>
       <c r="N58" t="n">
+        <v>47</v>
+      </c>
+      <c r="O58" t="n">
+        <v>63</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.849602458823529</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.8514187</v>
+      </c>
+      <c r="R58" t="n">
         <v>46</v>
       </c>
-      <c r="O58" t="n">
-        <v>43</v>
-      </c>
-      <c r="P58" t="n">
-        <v>0.850526970588235</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>0.8535248</v>
-      </c>
-      <c r="R58" t="n">
-        <v>45</v>
-      </c>
       <c r="S58" t="n">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="T58" t="n">
-        <v>0.811294541176471</v>
+        <v>0.812225094117647</v>
       </c>
       <c r="U58" t="n">
-        <v>0.8355298</v>
+        <v>0.8407006</v>
       </c>
       <c r="V58" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W58" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="X58" t="n">
-        <v>0.745687347058824</v>
+        <v>0.743105207058824</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.84140265</v>
+        <v>0.8446406</v>
       </c>
       <c r="Z58" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AA58" t="n">
         <v>49</v>
       </c>
       <c r="AB58" t="n">
-        <v>39.6</v>
+        <v>42.4</v>
       </c>
       <c r="AC58" t="n">
-        <v>37</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="59">
@@ -6032,70 +6032,70 @@
         <v>54</v>
       </c>
       <c r="H59" t="n">
-        <v>0.769365094117647</v>
+        <v>0.770156558823529</v>
       </c>
       <c r="I59" t="n">
-        <v>0.77610295</v>
+        <v>0.7803989</v>
       </c>
       <c r="J59" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K59" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="L59" t="n">
-        <v>0.830896847058823</v>
+        <v>0.8305584</v>
       </c>
       <c r="M59" t="n">
-        <v>0.83234145</v>
+        <v>0.8334653</v>
       </c>
       <c r="N59" t="n">
         <v>37</v>
       </c>
       <c r="O59" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="P59" t="n">
-        <v>0.858069705882353</v>
+        <v>0.857332329411765</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.85823295</v>
+        <v>0.8557762</v>
       </c>
       <c r="R59" t="n">
         <v>36</v>
       </c>
       <c r="S59" t="n">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="T59" t="n">
-        <v>0.807517688235294</v>
+        <v>0.808299747058824</v>
       </c>
       <c r="U59" t="n">
-        <v>0.82872955</v>
+        <v>0.8386705</v>
       </c>
       <c r="V59" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W59" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="X59" t="n">
-        <v>0.752444304117647</v>
+        <v>0.75070671</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.8582656</v>
+        <v>0.8719461</v>
       </c>
       <c r="Z59" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AA59" t="n">
         <v>45</v>
       </c>
       <c r="AB59" t="n">
-        <v>33.6</v>
+        <v>35.8</v>
       </c>
       <c r="AC59" t="n">
-        <v>34.2</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="60">
@@ -6121,70 +6121,70 @@
         <v>59</v>
       </c>
       <c r="H60" t="n">
-        <v>0.7621887</v>
+        <v>0.762768858823529</v>
       </c>
       <c r="I60" t="n">
-        <v>0.77375055</v>
+        <v>0.7777318</v>
       </c>
       <c r="J60" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K60" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="L60" t="n">
-        <v>0.825059658823529</v>
+        <v>0.824757505882353</v>
       </c>
       <c r="M60" t="n">
-        <v>0.82903585</v>
+        <v>0.8326437</v>
       </c>
       <c r="N60" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O60" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
-        <v>0.853178341176471</v>
+        <v>0.852655811764706</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.8550569</v>
+        <v>0.8553401</v>
       </c>
       <c r="R60" t="n">
         <v>41</v>
       </c>
       <c r="S60" t="n">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="T60" t="n">
-        <v>0.802797470588235</v>
+        <v>0.805253523529412</v>
       </c>
       <c r="U60" t="n">
-        <v>0.81473225</v>
+        <v>0.8209207</v>
       </c>
       <c r="V60" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="W60" t="n">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="X60" t="n">
-        <v>0.758141036470588</v>
+        <v>0.755902664705882</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.86667185</v>
+        <v>0.882288</v>
       </c>
       <c r="Z60" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA60" t="n">
         <v>42</v>
       </c>
       <c r="AB60" t="n">
-        <v>39.2</v>
+        <v>40.4</v>
       </c>
       <c r="AC60" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61">
@@ -6210,70 +6210,70 @@
         <v>64</v>
       </c>
       <c r="H61" t="n">
-        <v>0.762352429411765</v>
+        <v>0.763737223529412</v>
       </c>
       <c r="I61" t="n">
-        <v>0.78139595</v>
+        <v>0.7874688</v>
       </c>
       <c r="J61" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K61" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L61" t="n">
-        <v>0.831779970588235</v>
+        <v>0.83109</v>
       </c>
       <c r="M61" t="n">
-        <v>0.83467065</v>
+        <v>0.8363432</v>
       </c>
       <c r="N61" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O61" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="P61" t="n">
-        <v>0.858840676470588</v>
+        <v>0.857670270588235</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.8598532</v>
+        <v>0.8571722</v>
       </c>
       <c r="R61" t="n">
         <v>35</v>
       </c>
       <c r="S61" t="n">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="T61" t="n">
-        <v>0.803696517647059</v>
+        <v>0.807686958823529</v>
       </c>
       <c r="U61" t="n">
-        <v>0.81771795</v>
+        <v>0.828658</v>
       </c>
       <c r="V61" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="W61" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X61" t="n">
-        <v>0.761934036470588</v>
+        <v>0.758388541764706</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.88000305</v>
+        <v>0.8967263</v>
       </c>
       <c r="Z61" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA61" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB61" t="n">
-        <v>35</v>
+        <v>35.4</v>
       </c>
       <c r="AC61" t="n">
-        <v>29.2</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="62">
@@ -6299,70 +6299,70 @@
         <v>69</v>
       </c>
       <c r="H62" t="n">
-        <v>0.753822423529412</v>
+        <v>0.755182947058823</v>
       </c>
       <c r="I62" t="n">
-        <v>0.7789842</v>
+        <v>0.7854041</v>
       </c>
       <c r="J62" t="n">
         <v>65</v>
       </c>
       <c r="K62" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="L62" t="n">
-        <v>0.827334117647059</v>
+        <v>0.826806564705882</v>
       </c>
       <c r="M62" t="n">
-        <v>0.8318278</v>
+        <v>0.8350358</v>
       </c>
       <c r="N62" t="n">
         <v>42</v>
       </c>
       <c r="O62" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P62" t="n">
-        <v>0.855620094117647</v>
+        <v>0.854676088235294</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.8578218</v>
+        <v>0.8569618</v>
       </c>
       <c r="R62" t="n">
         <v>38</v>
       </c>
       <c r="S62" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="T62" t="n">
-        <v>0.800965970588235</v>
+        <v>0.803680111764706</v>
       </c>
       <c r="U62" t="n">
-        <v>0.82013185</v>
+        <v>0.8301986</v>
       </c>
       <c r="V62" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="W62" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="X62" t="n">
-        <v>0.76236053</v>
+        <v>0.759023827058824</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.8749379</v>
+        <v>0.8969652</v>
       </c>
       <c r="Z62" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA62" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="AB62" t="n">
-        <v>40.6</v>
+        <v>40.2</v>
       </c>
       <c r="AC62" t="n">
-        <v>33.6</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="63">
@@ -6388,70 +6388,70 @@
         <v>74</v>
       </c>
       <c r="H63" t="n">
-        <v>0.736895023529412</v>
+        <v>0.738607158823529</v>
       </c>
       <c r="I63" t="n">
-        <v>0.76361745</v>
+        <v>0.7732201</v>
       </c>
       <c r="J63" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K63" t="n">
         <v>59</v>
       </c>
       <c r="L63" t="n">
-        <v>0.8161051</v>
+        <v>0.815897294117647</v>
       </c>
       <c r="M63" t="n">
-        <v>0.8252993</v>
+        <v>0.8331201</v>
       </c>
       <c r="N63" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="O63" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="P63" t="n">
-        <v>0.846278117647059</v>
+        <v>0.845663182352941</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.85224835</v>
+        <v>0.8557434</v>
       </c>
       <c r="R63" t="n">
         <v>51</v>
       </c>
       <c r="S63" t="n">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="T63" t="n">
-        <v>0.801594217647059</v>
+        <v>0.802979882352941</v>
       </c>
       <c r="U63" t="n">
-        <v>0.822364</v>
+        <v>0.8324518</v>
       </c>
       <c r="V63" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="W63" t="n">
         <v>26</v>
       </c>
       <c r="X63" t="n">
-        <v>0.762951657058824</v>
+        <v>0.759624972352941</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.8751484</v>
+        <v>0.8970394</v>
       </c>
       <c r="Z63" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AA63" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="AB63" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AC63" t="n">
-        <v>46.8</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="64">
@@ -6477,70 +6477,70 @@
         <v>79</v>
       </c>
       <c r="H64" t="n">
-        <v>0.728383405882353</v>
+        <v>0.729363147058824</v>
       </c>
       <c r="I64" t="n">
-        <v>0.75113415</v>
+        <v>0.775101</v>
       </c>
       <c r="J64" t="n">
         <v>71</v>
       </c>
       <c r="K64" t="n">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="L64" t="n">
-        <v>0.814924947058824</v>
+        <v>0.814606917647059</v>
       </c>
       <c r="M64" t="n">
-        <v>0.8254055</v>
+        <v>0.834943</v>
       </c>
       <c r="N64" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="O64" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="P64" t="n">
-        <v>0.846786364705882</v>
+        <v>0.846164835294118</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.8533111</v>
+        <v>0.8576991</v>
       </c>
       <c r="R64" t="n">
         <v>49</v>
       </c>
       <c r="S64" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="T64" t="n">
-        <v>0.799628494117647</v>
+        <v>0.801549511764706</v>
       </c>
       <c r="U64" t="n">
-        <v>0.815274</v>
+        <v>0.8279875</v>
       </c>
       <c r="V64" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="W64" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="X64" t="n">
-        <v>0.764701896470588</v>
+        <v>0.762030462352941</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.87960515</v>
+        <v>0.8978115</v>
       </c>
       <c r="Z64" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AA64" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AB64" t="n">
-        <v>48.6</v>
+        <v>46.4</v>
       </c>
       <c r="AC64" t="n">
-        <v>48.8</v>
+        <v>37.6</v>
       </c>
     </row>
     <row r="65">
@@ -6566,70 +6566,70 @@
         <v>84</v>
       </c>
       <c r="H65" t="n">
-        <v>0.716578247058824</v>
+        <v>0.719413794117647</v>
       </c>
       <c r="I65" t="n">
-        <v>0.7321147</v>
+        <v>0.7646223</v>
       </c>
       <c r="J65" t="n">
         <v>73</v>
       </c>
       <c r="K65" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L65" t="n">
-        <v>0.807367364705882</v>
+        <v>0.807593664705882</v>
       </c>
       <c r="M65" t="n">
-        <v>0.82125315</v>
+        <v>0.8341046</v>
       </c>
       <c r="N65" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="O65" t="n">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="P65" t="n">
-        <v>0.841952394117647</v>
+        <v>0.841703</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.8505337</v>
+        <v>0.8572396</v>
       </c>
       <c r="R65" t="n">
         <v>55</v>
       </c>
       <c r="S65" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T65" t="n">
-        <v>0.799068829411765</v>
+        <v>0.800750282352941</v>
       </c>
       <c r="U65" t="n">
-        <v>0.8170396</v>
+        <v>0.8341499</v>
       </c>
       <c r="V65" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="W65" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="X65" t="n">
-        <v>0.765932945882353</v>
+        <v>0.763709405294118</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.87949355</v>
+        <v>0.8969802</v>
       </c>
       <c r="Z65" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AA65" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="AB65" t="n">
-        <v>53</v>
+        <v>50.4</v>
       </c>
       <c r="AC65" t="n">
-        <v>52</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="66">
@@ -6655,70 +6655,70 @@
         <v>89</v>
       </c>
       <c r="H66" t="n">
-        <v>0.707939335294118</v>
+        <v>0.710163576470588</v>
       </c>
       <c r="I66" t="n">
-        <v>0.72395025</v>
+        <v>0.7399612</v>
       </c>
       <c r="J66" t="n">
         <v>75</v>
       </c>
       <c r="K66" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L66" t="n">
-        <v>0.803866558823529</v>
+        <v>0.804081152941176</v>
       </c>
       <c r="M66" t="n">
-        <v>0.8195756</v>
+        <v>0.834856</v>
       </c>
       <c r="N66" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O66" t="n">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="P66" t="n">
-        <v>0.841342123529412</v>
+        <v>0.841107429411765</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.85043675</v>
+        <v>0.8580129</v>
       </c>
       <c r="R66" t="n">
         <v>56</v>
       </c>
       <c r="S66" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="T66" t="n">
-        <v>0.799245535294118</v>
+        <v>0.800257123529412</v>
       </c>
       <c r="U66" t="n">
-        <v>0.81471295</v>
+        <v>0.8277261</v>
       </c>
       <c r="V66" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="W66" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X66" t="n">
-        <v>0.768132495882353</v>
+        <v>0.766220337647059</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.8914225</v>
+        <v>0.8971424</v>
       </c>
       <c r="Z66" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AA66" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AB66" t="n">
-        <v>52.6</v>
+        <v>51.8</v>
       </c>
       <c r="AC66" t="n">
-        <v>50.6</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="67">
@@ -6744,10 +6744,10 @@
         <v>94</v>
       </c>
       <c r="H67" t="n">
-        <v>0.692972311764706</v>
+        <v>0.696375747058824</v>
       </c>
       <c r="I67" t="n">
-        <v>0.67272675</v>
+        <v>0.6683646</v>
       </c>
       <c r="J67" t="n">
         <v>77</v>
@@ -6756,58 +6756,58 @@
         <v>77</v>
       </c>
       <c r="L67" t="n">
-        <v>0.797856647058824</v>
+        <v>0.798416929411765</v>
       </c>
       <c r="M67" t="n">
-        <v>0.8120936</v>
+        <v>0.8272922</v>
       </c>
       <c r="N67" t="n">
         <v>78</v>
       </c>
       <c r="O67" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="P67" t="n">
-        <v>0.838406711764706</v>
+        <v>0.838371558823529</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.84935545</v>
+        <v>0.8590451</v>
       </c>
       <c r="R67" t="n">
         <v>59</v>
       </c>
       <c r="S67" t="n">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="T67" t="n">
-        <v>0.798727641176471</v>
+        <v>0.799550947058824</v>
       </c>
       <c r="U67" t="n">
-        <v>0.81471295</v>
+        <v>0.8277261</v>
       </c>
       <c r="V67" t="n">
         <v>50</v>
       </c>
       <c r="W67" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="X67" t="n">
-        <v>0.768725475882353</v>
+        <v>0.766887008235294</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.89097</v>
+        <v>0.8968448</v>
       </c>
       <c r="Z67" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA67" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AB67" t="n">
-        <v>54.8</v>
+        <v>55</v>
       </c>
       <c r="AC67" t="n">
-        <v>53.8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68">
@@ -6833,22 +6833,22 @@
         <v>99</v>
       </c>
       <c r="H68" t="n">
-        <v>0.667811547058824</v>
+        <v>0.669705094117647</v>
       </c>
       <c r="I68" t="n">
-        <v>0.65583525</v>
+        <v>0.6474851</v>
       </c>
       <c r="J68" t="n">
         <v>79</v>
       </c>
       <c r="K68" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L68" t="n">
-        <v>0.784795417647059</v>
+        <v>0.785279882352941</v>
       </c>
       <c r="M68" t="n">
-        <v>0.79232105</v>
+        <v>0.8015644</v>
       </c>
       <c r="N68" t="n">
         <v>81</v>
@@ -6857,46 +6857,46 @@
         <v>80</v>
       </c>
       <c r="P68" t="n">
-        <v>0.827706058823529</v>
+        <v>0.827654211764706</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.84390855</v>
+        <v>0.8584881</v>
       </c>
       <c r="R68" t="n">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="S68" t="n">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="T68" t="n">
-        <v>0.7981786</v>
+        <v>0.7991847</v>
       </c>
       <c r="U68" t="n">
-        <v>0.811647</v>
+        <v>0.8215942</v>
       </c>
       <c r="V68" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="W68" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="X68" t="n">
-        <v>0.768320007647059</v>
+        <v>0.766648185294118</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.8912735</v>
+        <v>0.8967704</v>
       </c>
       <c r="Z68" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA68" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AB68" t="n">
-        <v>60.4</v>
+        <v>58</v>
       </c>
       <c r="AC68" t="n">
-        <v>59.2</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="69">
@@ -6922,22 +6922,22 @@
         <v>104</v>
       </c>
       <c r="H69" t="n">
-        <v>0.659821129411765</v>
+        <v>0.662678276470588</v>
       </c>
       <c r="I69" t="n">
-        <v>0.65432175</v>
+        <v>0.6557496</v>
       </c>
       <c r="J69" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K69" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L69" t="n">
-        <v>0.783454794117647</v>
+        <v>0.783939829411765</v>
       </c>
       <c r="M69" t="n">
-        <v>0.78618655</v>
+        <v>0.7916891</v>
       </c>
       <c r="N69" t="n">
         <v>82</v>
@@ -6946,46 +6946,46 @@
         <v>82</v>
       </c>
       <c r="P69" t="n">
-        <v>0.827149629411765</v>
+        <v>0.826922076470588</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.8446095</v>
+        <v>0.8596356</v>
       </c>
       <c r="R69" t="n">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="S69" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="T69" t="n">
-        <v>0.798501776470588</v>
+        <v>0.800297835294118</v>
       </c>
       <c r="U69" t="n">
-        <v>0.8104009</v>
+        <v>0.8236865</v>
       </c>
       <c r="V69" t="n">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="W69" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="X69" t="n">
-        <v>0.769091305294118</v>
+        <v>0.767250285882353</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.89706255</v>
+        <v>0.8972687</v>
       </c>
       <c r="Z69" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA69" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AB69" t="n">
-        <v>61</v>
+        <v>55.8</v>
       </c>
       <c r="AC69" t="n">
-        <v>58.6</v>
+        <v>51.4</v>
       </c>
     </row>
     <row r="70">
@@ -7011,10 +7011,10 @@
         <v>109</v>
       </c>
       <c r="H70" t="n">
-        <v>0.6470043</v>
+        <v>0.648928523529412</v>
       </c>
       <c r="I70" t="n">
-        <v>0.63026275</v>
+        <v>0.627585</v>
       </c>
       <c r="J70" t="n">
         <v>83</v>
@@ -7023,10 +7023,10 @@
         <v>83</v>
       </c>
       <c r="L70" t="n">
-        <v>0.775015047058824</v>
+        <v>0.775207864705882</v>
       </c>
       <c r="M70" t="n">
-        <v>0.77244345</v>
+        <v>0.7724922</v>
       </c>
       <c r="N70" t="n">
         <v>84</v>
@@ -7035,46 +7035,46 @@
         <v>84</v>
       </c>
       <c r="P70" t="n">
-        <v>0.822276747058824</v>
+        <v>0.821665335294118</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.8424409</v>
+        <v>0.8599713</v>
       </c>
       <c r="R70" t="n">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="S70" t="n">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="T70" t="n">
-        <v>0.798646929411765</v>
+        <v>0.801084064705882</v>
       </c>
       <c r="U70" t="n">
-        <v>0.8091605</v>
+        <v>0.8216353</v>
       </c>
       <c r="V70" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="W70" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="X70" t="n">
-        <v>0.773029413529412</v>
+        <v>0.770636088823529</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.90274135</v>
+        <v>0.9084671</v>
       </c>
       <c r="Z70" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AA70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB70" t="n">
-        <v>60.8</v>
+        <v>56.4</v>
       </c>
       <c r="AC70" t="n">
-        <v>61.2</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="71">
@@ -7100,10 +7100,10 @@
         <v>114</v>
       </c>
       <c r="H71" t="n">
-        <v>0.631551741176471</v>
+        <v>0.633479482352941</v>
       </c>
       <c r="I71" t="n">
-        <v>0.61363465</v>
+        <v>0.5969738</v>
       </c>
       <c r="J71" t="n">
         <v>86</v>
@@ -7112,10 +7112,10 @@
         <v>85</v>
       </c>
       <c r="L71" t="n">
-        <v>0.764324558823529</v>
+        <v>0.764998852941176</v>
       </c>
       <c r="M71" t="n">
-        <v>0.75502115</v>
+        <v>0.7522727</v>
       </c>
       <c r="N71" t="n">
         <v>86</v>
@@ -7124,46 +7124,46 @@
         <v>86</v>
       </c>
       <c r="P71" t="n">
-        <v>0.813663364705882</v>
+        <v>0.813397311764706</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.8330221</v>
+        <v>0.8551016</v>
       </c>
       <c r="R71" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="S71" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="T71" t="n">
-        <v>0.798599952941176</v>
+        <v>0.800384164705882</v>
       </c>
       <c r="U71" t="n">
-        <v>0.81011765</v>
+        <v>0.8216353</v>
       </c>
       <c r="V71" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="W71" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X71" t="n">
-        <v>0.773137034117647</v>
+        <v>0.770524292941177</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.90270405</v>
+        <v>0.8970393</v>
       </c>
       <c r="Z71" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA71" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AB71" t="n">
-        <v>62.4</v>
+        <v>60.2</v>
       </c>
       <c r="AC71" t="n">
-        <v>63.2</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="72">
@@ -7189,22 +7189,22 @@
         <v>119</v>
       </c>
       <c r="H72" t="n">
-        <v>0.608291552941176</v>
+        <v>0.610322858823529</v>
       </c>
       <c r="I72" t="n">
-        <v>0.59132745</v>
+        <v>0.578024</v>
       </c>
       <c r="J72" t="n">
         <v>88</v>
       </c>
       <c r="K72" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L72" t="n">
-        <v>0.750180158823529</v>
+        <v>0.751395152941176</v>
       </c>
       <c r="M72" t="n">
-        <v>0.74541285</v>
+        <v>0.7443799</v>
       </c>
       <c r="N72" t="n">
         <v>88</v>
@@ -7213,46 +7213,46 @@
         <v>88</v>
       </c>
       <c r="P72" t="n">
-        <v>0.803412988235294</v>
+        <v>0.803504288235294</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.82063515</v>
+        <v>0.8408236</v>
       </c>
       <c r="R72" t="n">
         <v>88</v>
       </c>
       <c r="S72" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="T72" t="n">
-        <v>0.798806047058824</v>
+        <v>0.800409958823529</v>
       </c>
       <c r="U72" t="n">
-        <v>0.81022065</v>
+        <v>0.8216353</v>
       </c>
       <c r="V72" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="W72" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="X72" t="n">
-        <v>0.772966270588235</v>
+        <v>0.771091382941177</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.90274135</v>
+        <v>0.9084671</v>
       </c>
       <c r="Z72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB72" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="AC72" t="n">
         <v>63.2</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>64.2</v>
       </c>
     </row>
     <row r="73">
@@ -7278,22 +7278,22 @@
         <v>124</v>
       </c>
       <c r="H73" t="n">
-        <v>0.596320317647059</v>
+        <v>0.598862476470588</v>
       </c>
       <c r="I73" t="n">
-        <v>0.57822365</v>
+        <v>0.563381</v>
       </c>
       <c r="J73" t="n">
         <v>90</v>
       </c>
       <c r="K73" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L73" t="n">
-        <v>0.738546276470588</v>
+        <v>0.740031229411765</v>
       </c>
       <c r="M73" t="n">
-        <v>0.73250325</v>
+        <v>0.7345297</v>
       </c>
       <c r="N73" t="n">
         <v>90</v>
@@ -7302,10 +7302,10 @@
         <v>90</v>
       </c>
       <c r="P73" t="n">
-        <v>0.794637570588235</v>
+        <v>0.794931794117647</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.8092582</v>
+        <v>0.8270953</v>
       </c>
       <c r="R73" t="n">
         <v>90</v>
@@ -7314,34 +7314,34 @@
         <v>90</v>
       </c>
       <c r="T73" t="n">
-        <v>0.798630064705882</v>
+        <v>0.799923582352941</v>
       </c>
       <c r="U73" t="n">
-        <v>0.8101327</v>
+        <v>0.8216353</v>
       </c>
       <c r="V73" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="W73" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X73" t="n">
-        <v>0.772437967058824</v>
+        <v>0.770488063529412</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.89702745</v>
+        <v>0.8970393</v>
       </c>
       <c r="Z73" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AA73" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AB73" t="n">
-        <v>65.2</v>
+        <v>64.4</v>
       </c>
       <c r="AC73" t="n">
-        <v>66.4</v>
+        <v>68.6</v>
       </c>
     </row>
     <row r="74">
@@ -7370,67 +7370,67 @@
         <v>0.770114635294118</v>
       </c>
       <c r="I74" t="n">
-        <v>0.76011325</v>
+        <v>0.7501119</v>
       </c>
       <c r="J74" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K74" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="L74" t="n">
         <v>0.828800452941176</v>
       </c>
       <c r="M74" t="n">
-        <v>0.82738495</v>
+        <v>0.8259694</v>
       </c>
       <c r="N74" t="n">
         <v>40</v>
       </c>
       <c r="O74" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="P74" t="n">
         <v>0.850741082352941</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.85326475</v>
+        <v>0.8557884</v>
       </c>
       <c r="R74" t="n">
         <v>44</v>
       </c>
       <c r="S74" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="T74" t="n">
         <v>0.807358152941177</v>
       </c>
       <c r="U74" t="n">
-        <v>0.81613435</v>
+        <v>0.8203287</v>
       </c>
       <c r="V74" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="W74" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="X74" t="n">
         <v>0.716909408235294</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.7866818</v>
+        <v>0.7982507</v>
       </c>
       <c r="Z74" t="n">
         <v>53</v>
       </c>
       <c r="AA74" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AB74" t="n">
-        <v>39.6</v>
+        <v>42.6</v>
       </c>
       <c r="AC74" t="n">
-        <v>51.6</v>
+        <v>62.6</v>
       </c>
     </row>
     <row r="75">
@@ -7459,31 +7459,31 @@
         <v>0.781660652941176</v>
       </c>
       <c r="I75" t="n">
-        <v>0.7813096</v>
+        <v>0.7809585</v>
       </c>
       <c r="J75" t="n">
         <v>30</v>
       </c>
       <c r="K75" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="L75" t="n">
         <v>0.842721194117647</v>
       </c>
       <c r="M75" t="n">
-        <v>0.84796855</v>
+        <v>0.8532159</v>
       </c>
       <c r="N75" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O75" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="P75" t="n">
         <v>0.8683644</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.87660775</v>
+        <v>0.8802286</v>
       </c>
       <c r="R75" t="n">
         <v>11</v>
@@ -7495,31 +7495,31 @@
         <v>0.814389158823529</v>
       </c>
       <c r="U75" t="n">
-        <v>0.839471</v>
+        <v>0.8396729</v>
       </c>
       <c r="V75" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W75" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="X75" t="n">
         <v>0.743263651176471</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.84044775</v>
+        <v>0.8429019</v>
       </c>
       <c r="Z75" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA75" t="n">
         <v>50</v>
       </c>
       <c r="AB75" t="n">
-        <v>23.8</v>
+        <v>24.2</v>
       </c>
       <c r="AC75" t="n">
-        <v>23.2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76">
@@ -7548,67 +7548,67 @@
         <v>0.766825588235294</v>
       </c>
       <c r="I76" t="n">
-        <v>0.7727261</v>
+        <v>0.7768757</v>
       </c>
       <c r="J76" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="K76" t="n">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="L76" t="n">
         <v>0.824518811764706</v>
       </c>
       <c r="M76" t="n">
-        <v>0.8322497</v>
+        <v>0.8333037</v>
       </c>
       <c r="N76" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O76" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="P76" t="n">
         <v>0.851579305882353</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.854323</v>
+        <v>0.8543696</v>
       </c>
       <c r="R76" t="n">
         <v>42</v>
       </c>
       <c r="S76" t="n">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="T76" t="n">
         <v>0.812395847058824</v>
       </c>
       <c r="U76" t="n">
-        <v>0.83607425</v>
+        <v>0.8425118</v>
       </c>
       <c r="V76" t="n">
         <v>20</v>
       </c>
       <c r="W76" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="X76" t="n">
         <v>0.744698028823529</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.8419407</v>
+        <v>0.8465304</v>
       </c>
       <c r="Z76" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA76" t="n">
         <v>48</v>
       </c>
       <c r="AB76" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AC76" t="n">
-        <v>35</v>
+        <v>44.8</v>
       </c>
     </row>
     <row r="77">
@@ -7637,67 +7637,67 @@
         <v>0.769335747058824</v>
       </c>
       <c r="I77" t="n">
-        <v>0.7750938</v>
+        <v>0.7786244</v>
       </c>
       <c r="J77" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K77" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="L77" t="n">
         <v>0.831303982352941</v>
       </c>
       <c r="M77" t="n">
-        <v>0.83226225</v>
+        <v>0.8332205</v>
       </c>
       <c r="N77" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O77" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="P77" t="n">
         <v>0.858893352941177</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.8588349</v>
+        <v>0.8587764</v>
       </c>
       <c r="R77" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S77" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="T77" t="n">
         <v>0.808684429411765</v>
       </c>
       <c r="U77" t="n">
-        <v>0.83330015</v>
+        <v>0.8335588</v>
       </c>
       <c r="V77" t="n">
         <v>23</v>
       </c>
       <c r="W77" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="X77" t="n">
         <v>0.752399540588235</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.86479555</v>
+        <v>0.8834237</v>
       </c>
       <c r="Z77" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA77" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AB77" t="n">
-        <v>32.8</v>
+        <v>34.6</v>
       </c>
       <c r="AC77" t="n">
-        <v>33.4</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="78">
@@ -7726,67 +7726,67 @@
         <v>0.761378452941176</v>
       </c>
       <c r="I78" t="n">
-        <v>0.77329395</v>
+        <v>0.7758915</v>
       </c>
       <c r="J78" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K78" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="L78" t="n">
         <v>0.825862482352941</v>
       </c>
       <c r="M78" t="n">
-        <v>0.82939025</v>
+        <v>0.832918</v>
       </c>
       <c r="N78" t="n">
         <v>43</v>
       </c>
       <c r="O78" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P78" t="n">
         <v>0.854153576470588</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.855682</v>
+        <v>0.8572104</v>
       </c>
       <c r="R78" t="n">
         <v>40</v>
       </c>
       <c r="S78" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="T78" t="n">
         <v>0.805097941176471</v>
       </c>
       <c r="U78" t="n">
-        <v>0.8180351</v>
+        <v>0.8181046</v>
       </c>
       <c r="V78" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="W78" t="n">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="X78" t="n">
         <v>0.757594280588235</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.8670381</v>
+        <v>0.8820607</v>
       </c>
       <c r="Z78" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA78" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AB78" t="n">
-        <v>38.2</v>
+        <v>40.4</v>
       </c>
       <c r="AC78" t="n">
-        <v>41</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="79">
@@ -7815,67 +7815,67 @@
         <v>0.760003341176471</v>
       </c>
       <c r="I79" t="n">
-        <v>0.7807644</v>
+        <v>0.7839798</v>
       </c>
       <c r="J79" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="K79" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="L79" t="n">
         <v>0.831849252941177</v>
       </c>
       <c r="M79" t="n">
-        <v>0.834697</v>
+        <v>0.8375447</v>
       </c>
       <c r="N79" t="n">
         <v>34</v>
       </c>
       <c r="O79" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P79" t="n">
         <v>0.859627576470588</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.86035985</v>
+        <v>0.8610921</v>
       </c>
       <c r="R79" t="n">
         <v>31</v>
       </c>
       <c r="S79" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T79" t="n">
         <v>0.805091582352941</v>
       </c>
       <c r="U79" t="n">
-        <v>0.8193468</v>
+        <v>0.8221774</v>
       </c>
       <c r="V79" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="W79" t="n">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="X79" t="n">
         <v>0.760423937058823</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.878155</v>
+        <v>0.8933611</v>
       </c>
       <c r="Z79" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA79" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AB79" t="n">
-        <v>34.8</v>
+        <v>36.4</v>
       </c>
       <c r="AC79" t="n">
-        <v>30.4</v>
+        <v>38.8</v>
       </c>
     </row>
     <row r="80">
@@ -7904,46 +7904,46 @@
         <v>0.751531176470588</v>
       </c>
       <c r="I80" t="n">
-        <v>0.77641385</v>
+        <v>0.7789416</v>
       </c>
       <c r="J80" t="n">
         <v>66</v>
       </c>
       <c r="K80" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L80" t="n">
         <v>0.828184741176471</v>
       </c>
       <c r="M80" t="n">
-        <v>0.83213355</v>
+        <v>0.8360824</v>
       </c>
       <c r="N80" t="n">
         <v>41</v>
       </c>
       <c r="O80" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="P80" t="n">
         <v>0.856806523529412</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.8585114</v>
+        <v>0.8602163</v>
       </c>
       <c r="R80" t="n">
         <v>37</v>
       </c>
       <c r="S80" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T80" t="n">
         <v>0.803633258823529</v>
       </c>
       <c r="U80" t="n">
-        <v>0.822364</v>
+        <v>0.8324518</v>
       </c>
       <c r="V80" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="W80" t="n">
         <v>27</v>
@@ -7952,19 +7952,19 @@
         <v>0.763279658235294</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.87996595</v>
+        <v>0.8972031</v>
       </c>
       <c r="Z80" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA80" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AB80" t="n">
-        <v>38.8</v>
+        <v>39</v>
       </c>
       <c r="AC80" t="n">
-        <v>31.8</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="81">
@@ -7993,67 +7993,67 @@
         <v>0.737511511764706</v>
       </c>
       <c r="I81" t="n">
-        <v>0.7657256</v>
+        <v>0.7708386</v>
       </c>
       <c r="J81" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K81" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="L81" t="n">
         <v>0.817746058823529</v>
       </c>
       <c r="M81" t="n">
-        <v>0.8265328</v>
+        <v>0.8341916</v>
       </c>
       <c r="N81" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O81" t="n">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="P81" t="n">
         <v>0.847740717647059</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.8531088</v>
+        <v>0.8584769</v>
       </c>
       <c r="R81" t="n">
         <v>48</v>
       </c>
       <c r="S81" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T81" t="n">
         <v>0.803224088235294</v>
       </c>
       <c r="U81" t="n">
-        <v>0.82306185</v>
+        <v>0.8324518</v>
       </c>
       <c r="V81" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W81" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="X81" t="n">
         <v>0.762565881176471</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.87516415</v>
+        <v>0.8974258</v>
       </c>
       <c r="Z81" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA81" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="AB81" t="n">
-        <v>44.6</v>
+        <v>44.4</v>
       </c>
       <c r="AC81" t="n">
-        <v>45.2</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="82">
@@ -8082,67 +8082,67 @@
         <v>0.726088323529412</v>
       </c>
       <c r="I82" t="n">
-        <v>0.7372675</v>
+        <v>0.7484467</v>
       </c>
       <c r="J82" t="n">
         <v>72</v>
       </c>
       <c r="K82" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L82" t="n">
         <v>0.816348335294118</v>
       </c>
       <c r="M82" t="n">
-        <v>0.8259338</v>
+        <v>0.8355193</v>
       </c>
       <c r="N82" t="n">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="O82" t="n">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="P82" t="n">
         <v>0.848266594117647</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.854105</v>
+        <v>0.8599434</v>
       </c>
       <c r="R82" t="n">
         <v>47</v>
       </c>
       <c r="S82" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T82" t="n">
         <v>0.800962758823529</v>
       </c>
       <c r="U82" t="n">
-        <v>0.8180891</v>
+        <v>0.8279875</v>
       </c>
       <c r="V82" t="n">
+        <v>37</v>
+      </c>
+      <c r="W82" t="n">
         <v>35</v>
-      </c>
-      <c r="W82" t="n">
-        <v>30</v>
       </c>
       <c r="X82" t="n">
         <v>0.763007871176471</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.8797897</v>
+        <v>0.8972911</v>
       </c>
       <c r="Z82" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA82" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AB82" t="n">
-        <v>46.6</v>
+        <v>45.4</v>
       </c>
       <c r="AC82" t="n">
-        <v>46.8</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="83">
@@ -8171,67 +8171,67 @@
         <v>0.714017852941176</v>
       </c>
       <c r="I83" t="n">
-        <v>0.72698955</v>
+        <v>0.7399612</v>
       </c>
       <c r="J83" t="n">
         <v>74</v>
       </c>
       <c r="K83" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L83" t="n">
         <v>0.809409576470588</v>
       </c>
       <c r="M83" t="n">
-        <v>0.8221644</v>
+        <v>0.8349192</v>
       </c>
       <c r="N83" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="O83" t="n">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="P83" t="n">
         <v>0.843762352941177</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.85150615</v>
+        <v>0.8592499</v>
       </c>
       <c r="R83" t="n">
         <v>53</v>
       </c>
       <c r="S83" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="T83" t="n">
         <v>0.799808670588235</v>
       </c>
       <c r="U83" t="n">
-        <v>0.8174245</v>
+        <v>0.8279875</v>
       </c>
       <c r="V83" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="W83" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="X83" t="n">
         <v>0.764166912352941</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.8797167</v>
+        <v>0.8973655</v>
       </c>
       <c r="Z83" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA83" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="AB83" t="n">
-        <v>51.2</v>
+        <v>50.2</v>
       </c>
       <c r="AC83" t="n">
-        <v>50.8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84">
@@ -8260,7 +8260,7 @@
         <v>0.7032538</v>
       </c>
       <c r="I84" t="n">
-        <v>0.70171955</v>
+        <v>0.7001853</v>
       </c>
       <c r="J84" t="n">
         <v>76</v>
@@ -8272,55 +8272,55 @@
         <v>0.8053614</v>
       </c>
       <c r="M84" t="n">
-        <v>0.8202432</v>
+        <v>0.835125</v>
       </c>
       <c r="N84" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="O84" t="n">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="P84" t="n">
         <v>0.842912441176471</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.8512427</v>
+        <v>0.859573</v>
       </c>
       <c r="R84" t="n">
         <v>54</v>
       </c>
       <c r="S84" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="T84" t="n">
         <v>0.799667535294118</v>
       </c>
       <c r="U84" t="n">
-        <v>0.8139684</v>
+        <v>0.8236865</v>
       </c>
       <c r="V84" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="W84" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="X84" t="n">
         <v>0.765722087647059</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.8913421</v>
+        <v>0.8969936</v>
       </c>
       <c r="Z84" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA84" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AB84" t="n">
-        <v>52.4</v>
+        <v>52.8</v>
       </c>
       <c r="AC84" t="n">
-        <v>50.6</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="85">
@@ -8349,67 +8349,67 @@
         <v>0.689479917647059</v>
       </c>
       <c r="I85" t="n">
-        <v>0.66598265</v>
+        <v>0.6424854</v>
       </c>
       <c r="J85" t="n">
         <v>78</v>
       </c>
       <c r="K85" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L85" t="n">
         <v>0.800213211764706</v>
       </c>
       <c r="M85" t="n">
-        <v>0.81621245</v>
+        <v>0.8322117</v>
       </c>
       <c r="N85" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O85" t="n">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="P85" t="n">
         <v>0.840626464705882</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.85052565</v>
+        <v>0.8604248</v>
       </c>
       <c r="R85" t="n">
         <v>57</v>
       </c>
       <c r="S85" t="n">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="T85" t="n">
         <v>0.799528264705882</v>
       </c>
       <c r="U85" t="n">
-        <v>0.81332705</v>
+        <v>0.8236865</v>
       </c>
       <c r="V85" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="W85" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="X85" t="n">
         <v>0.766522814705882</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.8911933</v>
+        <v>0.896696</v>
       </c>
       <c r="Z85" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA85" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AB85" t="n">
-        <v>54</v>
+        <v>54.8</v>
       </c>
       <c r="AC85" t="n">
-        <v>52.8</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="86">
@@ -8438,7 +8438,7 @@
         <v>0.664721776470588</v>
       </c>
       <c r="I86" t="n">
-        <v>0.6514183</v>
+        <v>0.6424862</v>
       </c>
       <c r="J86" t="n">
         <v>80</v>
@@ -8450,55 +8450,55 @@
         <v>0.787389341176471</v>
       </c>
       <c r="M86" t="n">
-        <v>0.7977552</v>
+        <v>0.8081211</v>
       </c>
       <c r="N86" t="n">
         <v>79</v>
       </c>
       <c r="O86" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P86" t="n">
         <v>0.830419005882353</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.84536835</v>
+        <v>0.8603177</v>
       </c>
       <c r="R86" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="S86" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="T86" t="n">
         <v>0.799124605882353</v>
       </c>
       <c r="U86" t="n">
-        <v>0.81332705</v>
+        <v>0.8236865</v>
       </c>
       <c r="V86" t="n">
+        <v>55</v>
+      </c>
+      <c r="W86" t="n">
         <v>47</v>
-      </c>
-      <c r="W86" t="n">
-        <v>44</v>
       </c>
       <c r="X86" t="n">
         <v>0.766885006470588</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.8911933</v>
+        <v>0.896696</v>
       </c>
       <c r="Z86" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA86" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AB86" t="n">
-        <v>57.6</v>
+        <v>57.2</v>
       </c>
       <c r="AC86" t="n">
-        <v>56.8</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="87">
@@ -8527,19 +8527,19 @@
         <v>0.659986823529412</v>
       </c>
       <c r="I87" t="n">
-        <v>0.65077185</v>
+        <v>0.6485373</v>
       </c>
       <c r="J87" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K87" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L87" t="n">
         <v>0.786731529411765</v>
       </c>
       <c r="M87" t="n">
-        <v>0.79191685</v>
+        <v>0.7971022</v>
       </c>
       <c r="N87" t="n">
         <v>80</v>
@@ -8551,43 +8551,43 @@
         <v>0.830189011764706</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.84655215</v>
+        <v>0.8629153</v>
       </c>
       <c r="R87" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="S87" t="n">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="T87" t="n">
         <v>0.799361323529412</v>
       </c>
       <c r="U87" t="n">
-        <v>0.81269315</v>
+        <v>0.8236865</v>
       </c>
       <c r="V87" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="W87" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="X87" t="n">
         <v>0.768051787647059</v>
       </c>
       <c r="Y87" t="n">
-        <v>0.89694515</v>
+        <v>0.8972687</v>
       </c>
       <c r="Z87" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AA87" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AB87" t="n">
-        <v>57.4</v>
+        <v>56.8</v>
       </c>
       <c r="AC87" t="n">
-        <v>56.2</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="88">
@@ -8616,7 +8616,7 @@
         <v>0.645466847058824</v>
       </c>
       <c r="I88" t="n">
-        <v>0.626093</v>
+        <v>0.6212388</v>
       </c>
       <c r="J88" t="n">
         <v>84</v>
@@ -8628,7 +8628,7 @@
         <v>0.777926023529412</v>
       </c>
       <c r="M88" t="n">
-        <v>0.77864145</v>
+        <v>0.7793569</v>
       </c>
       <c r="N88" t="n">
         <v>83</v>
@@ -8640,22 +8640,22 @@
         <v>0.825619235294118</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.84424905</v>
+        <v>0.8628789</v>
       </c>
       <c r="R88" t="n">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="S88" t="n">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T88" t="n">
         <v>0.799806811764706</v>
       </c>
       <c r="U88" t="n">
-        <v>0.8117186</v>
+        <v>0.8236304</v>
       </c>
       <c r="V88" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="W88" t="n">
         <v>49</v>
@@ -8664,19 +8664,19 @@
         <v>0.77233102</v>
       </c>
       <c r="Y88" t="n">
-        <v>0.90296505</v>
+        <v>0.9084671</v>
       </c>
       <c r="Z88" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB88" t="n">
-        <v>58.8</v>
+        <v>56.4</v>
       </c>
       <c r="AC88" t="n">
-        <v>58.2</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="89">
@@ -8705,7 +8705,7 @@
         <v>0.634180158823529</v>
       </c>
       <c r="I89" t="n">
-        <v>0.60971</v>
+        <v>0.5914468</v>
       </c>
       <c r="J89" t="n">
         <v>85</v>
@@ -8717,7 +8717,7 @@
         <v>0.767935258823529</v>
       </c>
       <c r="M89" t="n">
-        <v>0.76270345</v>
+        <v>0.7574716</v>
       </c>
       <c r="N89" t="n">
         <v>85</v>
@@ -8729,43 +8729,43 @@
         <v>0.817737988235294</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.83831405</v>
+        <v>0.8588901</v>
       </c>
       <c r="R89" t="n">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="S89" t="n">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="T89" t="n">
         <v>0.799138058823529</v>
       </c>
       <c r="U89" t="n">
-        <v>0.8123992</v>
+        <v>0.8256603</v>
       </c>
       <c r="V89" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="W89" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="X89" t="n">
         <v>0.771212944117647</v>
       </c>
       <c r="Y89" t="n">
-        <v>0.8972139</v>
+        <v>0.8973885</v>
       </c>
       <c r="Z89" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA89" t="n">
         <v>8</v>
       </c>
-      <c r="AA89" t="n">
-        <v>7</v>
-      </c>
       <c r="AB89" t="n">
-        <v>61.8</v>
+        <v>60.8</v>
       </c>
       <c r="AC89" t="n">
-        <v>61.4</v>
+        <v>53</v>
       </c>
     </row>
     <row r="90">
@@ -8794,19 +8794,19 @@
         <v>0.611766535294118</v>
       </c>
       <c r="I90" t="n">
-        <v>0.5930649</v>
+        <v>0.5743633</v>
       </c>
       <c r="J90" t="n">
         <v>87</v>
       </c>
       <c r="K90" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L90" t="n">
         <v>0.755212752941177</v>
       </c>
       <c r="M90" t="n">
-        <v>0.7507435</v>
+        <v>0.7462742</v>
       </c>
       <c r="N90" t="n">
         <v>87</v>
@@ -8818,43 +8818,43 @@
         <v>0.808465423529412</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.82933015</v>
+        <v>0.8501949</v>
       </c>
       <c r="R90" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="S90" t="n">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="T90" t="n">
         <v>0.799870711764706</v>
       </c>
       <c r="U90" t="n">
-        <v>0.81175055</v>
+        <v>0.8236304</v>
       </c>
       <c r="V90" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="W90" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X90" t="n">
         <v>0.771972586470588</v>
       </c>
       <c r="Y90" t="n">
-        <v>0.90300235</v>
+        <v>0.9084671</v>
       </c>
       <c r="Z90" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AA90" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB90" t="n">
         <v>61.2</v>
       </c>
       <c r="AC90" t="n">
-        <v>61.8</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="91">
@@ -8883,19 +8883,19 @@
         <v>0.600388864705882</v>
       </c>
       <c r="I91" t="n">
-        <v>0.58064945</v>
+        <v>0.56091</v>
       </c>
       <c r="J91" t="n">
         <v>89</v>
       </c>
       <c r="K91" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L91" t="n">
         <v>0.744190941176471</v>
       </c>
       <c r="M91" t="n">
-        <v>0.73768855</v>
+        <v>0.7350709</v>
       </c>
       <c r="N91" t="n">
         <v>89</v>
@@ -8907,43 +8907,43 @@
         <v>0.800060876470588</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.818379</v>
+        <v>0.8366971</v>
       </c>
       <c r="R91" t="n">
         <v>89</v>
       </c>
       <c r="S91" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="T91" t="n">
         <v>0.800108364705882</v>
       </c>
       <c r="U91" t="n">
-        <v>0.81288435</v>
+        <v>0.8256603</v>
       </c>
       <c r="V91" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="W91" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X91" t="n">
         <v>0.772179151176471</v>
       </c>
       <c r="Y91" t="n">
-        <v>0.90296505</v>
+        <v>0.9084671</v>
       </c>
       <c r="Z91" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AA91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB91" t="n">
-        <v>62</v>
+        <v>62.4</v>
       </c>
       <c r="AC91" t="n">
-        <v>63</v>
+        <v>62.2</v>
       </c>
     </row>
   </sheetData>
